--- a/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9627160199728328</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9757553883943385</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9735607856627232</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.976733346238483</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9860720965965795</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9875631516914956</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.985401177527378</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9885266296178026</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9874724320777976</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9709328228240017</v>
+      </c>
+      <c r="D3">
+        <v>0.9835230996237695</v>
+      </c>
+      <c r="E3">
+        <v>0.9804131265094922</v>
+      </c>
+      <c r="F3">
+        <v>0.9851892302709259</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
+      <c r="J3">
+        <v>0.9922485226702414</v>
+      </c>
+      <c r="K3">
+        <v>0.9943712389078067</v>
+      </c>
+      <c r="L3">
+        <v>0.9913029152141073</v>
+      </c>
+      <c r="M3">
+        <v>0.9960151921539099</v>
+      </c>
+      <c r="N3">
+        <v>0.9936576293849294</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9760766648921197</v>
+      </c>
+      <c r="D4">
+        <v>0.9883930003279557</v>
+      </c>
+      <c r="E4">
+        <v>0.9847101236506215</v>
+      </c>
+      <c r="F4">
+        <v>0.9904916278752738</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
+      <c r="J4">
+        <v>0.9961127814597155</v>
+      </c>
+      <c r="K4">
+        <v>0.9986335600929604</v>
+      </c>
+      <c r="L4">
+        <v>0.9949966554315427</v>
+      </c>
+      <c r="M4">
+        <v>1.000706181598688</v>
+      </c>
+      <c r="N4">
+        <v>0.9975273758651215</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9782003950615642</v>
+      </c>
+      <c r="D5">
+        <v>0.9904052672022461</v>
+      </c>
+      <c r="E5">
+        <v>0.9864858385451857</v>
+      </c>
+      <c r="F5">
+        <v>0.9926828950784746</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
+      <c r="J5">
+        <v>0.9977075823121884</v>
+      </c>
+      <c r="K5">
+        <v>1.000393342051788</v>
+      </c>
+      <c r="L5">
+        <v>0.9965213786264998</v>
+      </c>
+      <c r="M5">
+        <v>1.002643600927007</v>
+      </c>
+      <c r="N5">
+        <v>0.9991244415177306</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9785547797689831</v>
+      </c>
+      <c r="D6">
+        <v>0.9907411460885155</v>
+      </c>
+      <c r="E6">
+        <v>0.9867822417956786</v>
+      </c>
+      <c r="F6">
+        <v>0.9930486700522457</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.04537027023839</v>
+      </c>
+      <c r="J6">
+        <v>0.9979736657740131</v>
+      </c>
+      <c r="K6">
+        <v>1.000686993075819</v>
+      </c>
+      <c r="L6">
+        <v>0.9967757867681868</v>
+      </c>
+      <c r="M6">
+        <v>1.002966932869574</v>
+      </c>
+      <c r="N6">
+        <v>0.9993909028485917</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9761051911661532</v>
+      </c>
+      <c r="D7">
+        <v>0.9884200230324023</v>
+      </c>
+      <c r="E7">
+        <v>0.984733969087089</v>
+      </c>
+      <c r="F7">
+        <v>0.9905210531749781</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
+      <c r="J7">
+        <v>0.9961342056722311</v>
+      </c>
+      <c r="K7">
+        <v>0.9986571978452223</v>
+      </c>
+      <c r="L7">
+        <v>0.9950171370938844</v>
+      </c>
+      <c r="M7">
+        <v>1.000732202801205</v>
+      </c>
+      <c r="N7">
+        <v>0.9975488305024761</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9655304364228273</v>
+      </c>
+      <c r="D8">
+        <v>0.9784144030833815</v>
+      </c>
+      <c r="E8">
+        <v>0.9759062080065485</v>
+      </c>
+      <c r="F8">
+        <v>0.9796277357553532</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J8">
+        <v>0.988188071667509</v>
+      </c>
+      <c r="K8">
+        <v>0.9898949274385928</v>
+      </c>
+      <c r="L8">
+        <v>0.9874227479175256</v>
+      </c>
+      <c r="M8">
+        <v>0.9910909214371505</v>
+      </c>
+      <c r="N8">
+        <v>0.989591412076033</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9454357854714968</v>
+      </c>
+      <c r="D9">
+        <v>0.9594648480208541</v>
+      </c>
+      <c r="E9">
+        <v>0.9591985942730165</v>
+      </c>
+      <c r="F9">
+        <v>0.9590035463047391</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.044923609578788</v>
+      </c>
+      <c r="J9">
+        <v>0.9730742490544959</v>
+      </c>
+      <c r="K9">
+        <v>0.9732516984640256</v>
+      </c>
+      <c r="L9">
+        <v>0.9729902537672701</v>
+      </c>
+      <c r="M9">
+        <v>0.9727987309411724</v>
+      </c>
+      <c r="N9">
+        <v>0.9744561261013299</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9308374969978337</v>
+      </c>
+      <c r="D10">
+        <v>0.945749753565617</v>
+      </c>
+      <c r="E10">
+        <v>0.9471190341328211</v>
+      </c>
+      <c r="F10">
+        <v>0.9440775938639213</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.044587919160615</v>
+      </c>
+      <c r="J10">
+        <v>0.9620918683333803</v>
+      </c>
+      <c r="K10">
+        <v>0.9611728290757315</v>
+      </c>
+      <c r="L10">
+        <v>0.9625135481731187</v>
+      </c>
+      <c r="M10">
+        <v>0.9595356971506805</v>
+      </c>
+      <c r="N10">
+        <v>0.9634581491398935</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9241711328819365</v>
+      </c>
+      <c r="D11">
+        <v>0.939500996489</v>
+      </c>
+      <c r="E11">
+        <v>0.9416199076254227</v>
+      </c>
+      <c r="F11">
+        <v>0.9372765436596292</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.0444161704399</v>
+      </c>
+      <c r="J11">
+        <v>0.9570780378601327</v>
+      </c>
+      <c r="K11">
+        <v>0.9556617327084953</v>
+      </c>
+      <c r="L11">
+        <v>0.957733675142958</v>
+      </c>
+      <c r="M11">
+        <v>0.9534868924882045</v>
+      </c>
+      <c r="N11">
+        <v>0.9584371984522791</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9216369238310564</v>
+      </c>
+      <c r="D12">
+        <v>0.9371278965501676</v>
+      </c>
+      <c r="E12">
+        <v>0.939532305800468</v>
+      </c>
+      <c r="F12">
+        <v>0.9346935161562849</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.044348406001364</v>
+      </c>
+      <c r="J12">
+        <v>0.9551724268685363</v>
+      </c>
+      <c r="K12">
+        <v>0.9535676034263386</v>
+      </c>
+      <c r="L12">
+        <v>0.9559175080223232</v>
+      </c>
+      <c r="M12">
+        <v>0.9511887887158522</v>
+      </c>
+      <c r="N12">
+        <v>0.956528881274498</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9221832563120826</v>
+      </c>
+      <c r="D13">
+        <v>0.9376393866941208</v>
+      </c>
+      <c r="E13">
+        <v>0.9399822216470812</v>
+      </c>
+      <c r="F13">
+        <v>0.9352502632205983</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.044363121405789</v>
+      </c>
+      <c r="J13">
+        <v>0.9555832233196656</v>
+      </c>
+      <c r="K13">
+        <v>0.9540190179486547</v>
+      </c>
+      <c r="L13">
+        <v>0.9563089982536912</v>
+      </c>
+      <c r="M13">
+        <v>0.9516841574815896</v>
+      </c>
+      <c r="N13">
+        <v>0.9569402611037071</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9239628773878774</v>
+      </c>
+      <c r="D14">
+        <v>0.9393059315548926</v>
+      </c>
+      <c r="E14">
+        <v>0.9414482928970451</v>
+      </c>
+      <c r="F14">
+        <v>0.9370642272851298</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.044410650012188</v>
+      </c>
+      <c r="J14">
+        <v>0.9569214300231942</v>
+      </c>
+      <c r="K14">
+        <v>0.9554896224188547</v>
+      </c>
+      <c r="L14">
+        <v>0.9575844070650446</v>
+      </c>
+      <c r="M14">
+        <v>0.9532980113863528</v>
+      </c>
+      <c r="N14">
+        <v>0.9582803682142493</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9250514699743426</v>
+      </c>
+      <c r="D15">
+        <v>0.9403256713865061</v>
+      </c>
+      <c r="E15">
+        <v>0.9423454759645282</v>
+      </c>
+      <c r="F15">
+        <v>0.9381741443991106</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.044439407833738</v>
+      </c>
+      <c r="J15">
+        <v>0.9577400671271717</v>
+      </c>
+      <c r="K15">
+        <v>0.9563893148526761</v>
+      </c>
+      <c r="L15">
+        <v>0.9583646986021244</v>
+      </c>
+      <c r="M15">
+        <v>0.9542853856515183</v>
+      </c>
+      <c r="N15">
+        <v>0.9591001678768135</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9312721454527868</v>
+      </c>
+      <c r="D16">
+        <v>0.9461574853881518</v>
+      </c>
+      <c r="E16">
+        <v>0.9474779558048826</v>
+      </c>
+      <c r="F16">
+        <v>0.9445213429583508</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.044598761177637</v>
+      </c>
+      <c r="J16">
+        <v>0.9624188137880816</v>
+      </c>
+      <c r="K16">
+        <v>0.9615322673532307</v>
+      </c>
+      <c r="L16">
+        <v>0.962825306120958</v>
+      </c>
+      <c r="M16">
+        <v>0.9599302550541023</v>
+      </c>
+      <c r="N16">
+        <v>0.9637855588946416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.935077747260195</v>
+      </c>
+      <c r="D17">
+        <v>0.9497290427896994</v>
+      </c>
+      <c r="E17">
+        <v>0.9506224731985528</v>
+      </c>
+      <c r="F17">
+        <v>0.9484083181936929</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.044691650831722</v>
+      </c>
+      <c r="J17">
+        <v>0.9652815804915637</v>
+      </c>
+      <c r="K17">
+        <v>0.9646799148525714</v>
+      </c>
+      <c r="L17">
+        <v>0.9655554436268677</v>
+      </c>
+      <c r="M17">
+        <v>0.9633857348996621</v>
+      </c>
+      <c r="N17">
+        <v>0.9666523910552067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9372646484036025</v>
+      </c>
+      <c r="D18">
+        <v>0.9517827701048315</v>
+      </c>
+      <c r="E18">
+        <v>0.9524310502747624</v>
+      </c>
+      <c r="F18">
+        <v>0.9506433671910913</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.044743285667331</v>
+      </c>
+      <c r="J18">
+        <v>0.9669267877276824</v>
+      </c>
+      <c r="K18">
+        <v>0.9664891521563899</v>
+      </c>
+      <c r="L18">
+        <v>0.9671247155606747</v>
+      </c>
+      <c r="M18">
+        <v>0.9653721551390282</v>
+      </c>
+      <c r="N18">
+        <v>0.9682999346743084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9380049255850137</v>
+      </c>
+      <c r="D19">
+        <v>0.9524781856020877</v>
+      </c>
+      <c r="E19">
+        <v>0.9530435204455704</v>
+      </c>
+      <c r="F19">
+        <v>0.9514001741066803</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.044760460044801</v>
+      </c>
+      <c r="J19">
+        <v>0.9674837120864417</v>
+      </c>
+      <c r="K19">
+        <v>0.9671016562702236</v>
+      </c>
+      <c r="L19">
+        <v>0.967655981683878</v>
+      </c>
+      <c r="M19">
+        <v>0.966044685733447</v>
+      </c>
+      <c r="N19">
+        <v>0.9688576499295374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9346728805069058</v>
+      </c>
+      <c r="D20">
+        <v>0.9493489365828727</v>
+      </c>
+      <c r="E20">
+        <v>0.950287771802841</v>
+      </c>
+      <c r="F20">
+        <v>0.947994649237084</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.044681948034609</v>
+      </c>
+      <c r="J20">
+        <v>0.9649770065522497</v>
+      </c>
+      <c r="K20">
+        <v>0.9643449997572343</v>
+      </c>
+      <c r="L20">
+        <v>0.9652649502163139</v>
+      </c>
+      <c r="M20">
+        <v>0.9630180408172585</v>
+      </c>
+      <c r="N20">
+        <v>0.9663473845859636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9234404797864937</v>
+      </c>
+      <c r="D21">
+        <v>0.9388166603666732</v>
+      </c>
+      <c r="E21">
+        <v>0.941017854153519</v>
+      </c>
+      <c r="F21">
+        <v>0.9365316819480979</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.044396763635349</v>
+      </c>
+      <c r="J21">
+        <v>0.9565285947267391</v>
+      </c>
+      <c r="K21">
+        <v>0.9550579083536815</v>
+      </c>
+      <c r="L21">
+        <v>0.957209991447971</v>
+      </c>
+      <c r="M21">
+        <v>0.9528242355451642</v>
+      </c>
+      <c r="N21">
+        <v>0.9578869750466145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9160386506186647</v>
+      </c>
+      <c r="D22">
+        <v>0.9318901427345493</v>
+      </c>
+      <c r="E22">
+        <v>0.9349263545671562</v>
+      </c>
+      <c r="F22">
+        <v>0.9289919734542863</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.044194488544656</v>
+      </c>
+      <c r="J22">
+        <v>0.950963737165093</v>
+      </c>
+      <c r="K22">
+        <v>0.9489434148633658</v>
+      </c>
+      <c r="L22">
+        <v>0.9519074013061225</v>
+      </c>
+      <c r="M22">
+        <v>0.9461147788838635</v>
+      </c>
+      <c r="N22">
+        <v>0.9523142147489325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9199970304285675</v>
+      </c>
+      <c r="D23">
+        <v>0.9355929506102932</v>
+      </c>
+      <c r="E23">
+        <v>0.9381822705971156</v>
+      </c>
+      <c r="F23">
+        <v>0.93302272287656</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.044303897290665</v>
+      </c>
+      <c r="J23">
+        <v>0.9539394373628654</v>
+      </c>
+      <c r="K23">
+        <v>0.9522127687149481</v>
+      </c>
+      <c r="L23">
+        <v>0.9547425470436942</v>
+      </c>
+      <c r="M23">
+        <v>0.949702080948606</v>
+      </c>
+      <c r="N23">
+        <v>0.9552941407823035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9348559234035919</v>
+      </c>
+      <c r="D24">
+        <v>0.9495207809838135</v>
+      </c>
+      <c r="E24">
+        <v>0.9504390876246458</v>
+      </c>
+      <c r="F24">
+        <v>0.9481816673660393</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.04468634017905</v>
+      </c>
+      <c r="J24">
+        <v>0.9651147060883791</v>
+      </c>
+      <c r="K24">
+        <v>0.9644964157249373</v>
+      </c>
+      <c r="L24">
+        <v>0.9653962829849458</v>
+      </c>
+      <c r="M24">
+        <v>0.9631842754872402</v>
+      </c>
+      <c r="N24">
+        <v>0.9664852796712289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.950824595741794</v>
+      </c>
+      <c r="D25">
+        <v>0.9645385070241504</v>
+      </c>
+      <c r="E25">
+        <v>0.9636702052461862</v>
+      </c>
+      <c r="F25">
+        <v>0.9645251231259154</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045030265302785</v>
+      </c>
+      <c r="J25">
+        <v>0.9771283271288784</v>
+      </c>
+      <c r="K25">
+        <v>0.9777134477629859</v>
+      </c>
+      <c r="L25">
+        <v>0.9768599525889292</v>
+      </c>
+      <c r="M25">
+        <v>0.9777002918305925</v>
+      </c>
+      <c r="N25">
+        <v>0.9785159614315873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9627160199728328</v>
+        <v>1.031528711567798</v>
       </c>
       <c r="D2">
-        <v>0.9757553883943385</v>
+        <v>1.040777922395563</v>
       </c>
       <c r="E2">
-        <v>0.9735607856627232</v>
+        <v>1.031004210401216</v>
       </c>
       <c r="F2">
-        <v>0.976733346238483</v>
+        <v>1.047580054212718</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9860720965965795</v>
+        <v>1.036663938705474</v>
       </c>
       <c r="K2">
-        <v>0.9875631516914956</v>
+        <v>1.043559307405298</v>
       </c>
       <c r="L2">
-        <v>0.985401177527378</v>
+        <v>1.033813583220027</v>
       </c>
       <c r="M2">
-        <v>0.9885266296178026</v>
+        <v>1.050342295136892</v>
       </c>
       <c r="N2">
-        <v>0.9874724320777976</v>
+        <v>1.038136120405452</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9709328228240017</v>
+        <v>1.033149473229332</v>
       </c>
       <c r="D3">
-        <v>0.9835230996237695</v>
+        <v>1.042373664865802</v>
       </c>
       <c r="E3">
-        <v>0.9804131265094922</v>
+        <v>1.032405029692096</v>
       </c>
       <c r="F3">
-        <v>0.9851892302709259</v>
+        <v>1.049331019988976</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9922485226702414</v>
+        <v>1.037923198507259</v>
       </c>
       <c r="K3">
-        <v>0.9943712389078067</v>
+        <v>1.04496347961889</v>
       </c>
       <c r="L3">
-        <v>0.9913029152141073</v>
+        <v>1.03502128702245</v>
       </c>
       <c r="M3">
-        <v>0.9960151921539099</v>
+        <v>1.051902701189664</v>
       </c>
       <c r="N3">
-        <v>0.9936576293849294</v>
+        <v>1.039397168500594</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9760766648921197</v>
+        <v>1.034196746797847</v>
       </c>
       <c r="D4">
-        <v>0.9883930003279557</v>
+        <v>1.04340511938952</v>
       </c>
       <c r="E4">
-        <v>0.9847101236506215</v>
+        <v>1.033310310487999</v>
       </c>
       <c r="F4">
-        <v>0.9904916278752738</v>
+        <v>1.050463109509821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9961127814597155</v>
+        <v>1.038736259236988</v>
       </c>
       <c r="K4">
-        <v>0.9986335600929604</v>
+        <v>1.045870500420916</v>
       </c>
       <c r="L4">
-        <v>0.9949966554315427</v>
+        <v>1.035801096219006</v>
       </c>
       <c r="M4">
-        <v>1.000706181598688</v>
+        <v>1.0529110404373</v>
       </c>
       <c r="N4">
-        <v>0.9975273758651215</v>
+        <v>1.040211383869819</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9782003950615642</v>
+        <v>1.034636679974207</v>
       </c>
       <c r="D5">
-        <v>0.9904052672022461</v>
+        <v>1.043838489932026</v>
       </c>
       <c r="E5">
-        <v>0.9864858385451857</v>
+        <v>1.033690625064755</v>
       </c>
       <c r="F5">
-        <v>0.9926828950784746</v>
+        <v>1.050938834856217</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>0.9977075823121884</v>
+        <v>1.039077655643758</v>
       </c>
       <c r="K5">
-        <v>1.000393342051788</v>
+        <v>1.046251444461984</v>
       </c>
       <c r="L5">
-        <v>0.9965213786264998</v>
+        <v>1.036128539092527</v>
       </c>
       <c r="M5">
-        <v>1.002643600927007</v>
+        <v>1.05333463351988</v>
       </c>
       <c r="N5">
-        <v>0.9991244415177306</v>
+        <v>1.040553265098645</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9785547797689831</v>
+        <v>1.034710527025688</v>
       </c>
       <c r="D6">
-        <v>0.9907411460885155</v>
+        <v>1.043911240204761</v>
       </c>
       <c r="E6">
-        <v>0.9867822417956786</v>
+        <v>1.033754466224418</v>
       </c>
       <c r="F6">
-        <v>0.9930486700522457</v>
+        <v>1.051018699525775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9979736657740131</v>
+        <v>1.039134953541415</v>
       </c>
       <c r="K6">
-        <v>1.000686993075819</v>
+        <v>1.0463153853514</v>
       </c>
       <c r="L6">
-        <v>0.9967757867681868</v>
+        <v>1.036183495603341</v>
       </c>
       <c r="M6">
-        <v>1.002966932869574</v>
+        <v>1.053405738610759</v>
       </c>
       <c r="N6">
-        <v>0.9993909028485917</v>
+        <v>1.040610644365889</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9761051911661532</v>
+        <v>1.034202626530109</v>
       </c>
       <c r="D7">
-        <v>0.9884200230324023</v>
+        <v>1.043410911088182</v>
       </c>
       <c r="E7">
-        <v>0.984733969087089</v>
+        <v>1.03331539330175</v>
       </c>
       <c r="F7">
-        <v>0.9905210531749781</v>
+        <v>1.050469466965877</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9961342056722311</v>
+        <v>1.038740822609223</v>
       </c>
       <c r="K7">
-        <v>0.9986571978452223</v>
+        <v>1.045875592045448</v>
       </c>
       <c r="L7">
-        <v>0.9950171370938844</v>
+        <v>1.035805473044411</v>
       </c>
       <c r="M7">
-        <v>1.000732202801205</v>
+        <v>1.052916701723883</v>
       </c>
       <c r="N7">
-        <v>0.9975488305024761</v>
+        <v>1.040215953722566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9655304364228273</v>
+        <v>1.03207676590428</v>
       </c>
       <c r="D8">
-        <v>0.9784144030833815</v>
+        <v>1.041317444217922</v>
       </c>
       <c r="E8">
-        <v>0.9759062080065485</v>
+        <v>1.031477865419341</v>
       </c>
       <c r="F8">
-        <v>0.9796277357553532</v>
+        <v>1.048171994757702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.988188071667509</v>
+        <v>1.03708988171624</v>
       </c>
       <c r="K8">
-        <v>0.9898949274385928</v>
+        <v>1.044034184986659</v>
       </c>
       <c r="L8">
-        <v>0.9874227479175256</v>
+        <v>1.034222079782421</v>
       </c>
       <c r="M8">
-        <v>0.9910909214371505</v>
+        <v>1.050869926735621</v>
       </c>
       <c r="N8">
-        <v>0.989591412076033</v>
+        <v>1.038562668304149</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9454357854714968</v>
+        <v>1.028319006331301</v>
       </c>
       <c r="D9">
-        <v>0.9594648480208541</v>
+        <v>1.037619640883564</v>
       </c>
       <c r="E9">
-        <v>0.9591985942730165</v>
+        <v>1.02823078613257</v>
       </c>
       <c r="F9">
-        <v>0.9590035463047391</v>
+        <v>1.044116151614281</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9730742490544959</v>
+        <v>1.034166833571057</v>
       </c>
       <c r="K9">
-        <v>0.9732516984640256</v>
+        <v>1.040776944220929</v>
       </c>
       <c r="L9">
-        <v>0.9729902537672701</v>
+        <v>1.031418918133991</v>
       </c>
       <c r="M9">
-        <v>0.9727987309411724</v>
+        <v>1.047252478801198</v>
       </c>
       <c r="N9">
-        <v>0.9744561261013299</v>
+        <v>1.035635469095322</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9308374969978337</v>
+        <v>1.025805277719833</v>
       </c>
       <c r="D10">
-        <v>0.945749753565617</v>
+        <v>1.035147871614437</v>
       </c>
       <c r="E10">
-        <v>0.9471190341328211</v>
+        <v>1.026059419911654</v>
       </c>
       <c r="F10">
-        <v>0.9440775938639213</v>
+        <v>1.041406588782685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9620918683333803</v>
+        <v>1.032208291231637</v>
       </c>
       <c r="K10">
-        <v>0.9611728290757315</v>
+        <v>1.038596517508379</v>
       </c>
       <c r="L10">
-        <v>0.9625135481731187</v>
+        <v>1.029540915074887</v>
       </c>
       <c r="M10">
-        <v>0.9595356971506805</v>
+        <v>1.044832980821995</v>
       </c>
       <c r="N10">
-        <v>0.9634581491398935</v>
+        <v>1.033674145401131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9241711328819365</v>
+        <v>1.024714625673881</v>
       </c>
       <c r="D11">
-        <v>0.939500996489</v>
+        <v>1.034075872470286</v>
       </c>
       <c r="E11">
-        <v>0.9416199076254227</v>
+        <v>1.025117502779489</v>
       </c>
       <c r="F11">
-        <v>0.9372765436596292</v>
+        <v>1.04023182003385</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9570780378601327</v>
+        <v>1.031357771619474</v>
       </c>
       <c r="K11">
-        <v>0.9556617327084953</v>
+        <v>1.037650123774023</v>
       </c>
       <c r="L11">
-        <v>0.957733675142958</v>
+        <v>1.028725424021697</v>
       </c>
       <c r="M11">
-        <v>0.9534868924882045</v>
+        <v>1.043783306098854</v>
       </c>
       <c r="N11">
-        <v>0.9584371984522791</v>
+        <v>1.032822417953563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9216369238310564</v>
+        <v>1.024309166753347</v>
       </c>
       <c r="D12">
-        <v>0.9371278965501676</v>
+        <v>1.033677415882243</v>
       </c>
       <c r="E12">
-        <v>0.939532305800468</v>
+        <v>1.02476736724914</v>
       </c>
       <c r="F12">
-        <v>0.9346935161562849</v>
+        <v>1.039795218422661</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9551724268685363</v>
+        <v>1.031041471582674</v>
       </c>
       <c r="K12">
-        <v>0.9535676034263386</v>
+        <v>1.037298241350387</v>
       </c>
       <c r="L12">
-        <v>0.9559175080223232</v>
+        <v>1.028422159079493</v>
       </c>
       <c r="M12">
-        <v>0.9511887887158522</v>
+        <v>1.043393095180531</v>
       </c>
       <c r="N12">
-        <v>0.956528881274498</v>
+        <v>1.032505668734431</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9221832563120826</v>
+        <v>1.024396154763193</v>
       </c>
       <c r="D13">
-        <v>0.9376393866941208</v>
+        <v>1.033762898510582</v>
       </c>
       <c r="E13">
-        <v>0.9399822216470812</v>
+        <v>1.02484248468764</v>
       </c>
       <c r="F13">
-        <v>0.9352502632205983</v>
+        <v>1.039888882034356</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9555832233196656</v>
+        <v>1.031109336333286</v>
       </c>
       <c r="K13">
-        <v>0.9540190179486547</v>
+        <v>1.037373737323711</v>
       </c>
       <c r="L13">
-        <v>0.9563089982536912</v>
+        <v>1.028487226663756</v>
       </c>
       <c r="M13">
-        <v>0.9516841574815896</v>
+        <v>1.043476811196233</v>
       </c>
       <c r="N13">
-        <v>0.9569402611037071</v>
+        <v>1.032573629860773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9239628773878774</v>
+        <v>1.024681117369311</v>
       </c>
       <c r="D14">
-        <v>0.9393059315548926</v>
+        <v>1.034042941468732</v>
       </c>
       <c r="E14">
-        <v>0.9414482928970451</v>
+        <v>1.025088565942884</v>
       </c>
       <c r="F14">
-        <v>0.9370642272851298</v>
+        <v>1.040195735385687</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9569214300231942</v>
+        <v>1.03133163395268</v>
       </c>
       <c r="K14">
-        <v>0.9554896224188547</v>
+        <v>1.037621044259477</v>
       </c>
       <c r="L14">
-        <v>0.9575844070650446</v>
+        <v>1.028700363347615</v>
       </c>
       <c r="M14">
-        <v>0.9532980113863528</v>
+        <v>1.043751057638611</v>
       </c>
       <c r="N14">
-        <v>0.9582803682142493</v>
+        <v>1.032796243168284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9250514699743426</v>
+        <v>1.02485664650103</v>
       </c>
       <c r="D15">
-        <v>0.9403256713865061</v>
+        <v>1.034215449256043</v>
       </c>
       <c r="E15">
-        <v>0.9423454759645282</v>
+        <v>1.025240149235507</v>
       </c>
       <c r="F15">
-        <v>0.9381741443991106</v>
+        <v>1.040384765635166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9577400671271717</v>
+        <v>1.031468548309034</v>
       </c>
       <c r="K15">
-        <v>0.9563893148526761</v>
+        <v>1.037773371563874</v>
       </c>
       <c r="L15">
-        <v>0.9583646986021244</v>
+        <v>1.028831636541383</v>
       </c>
       <c r="M15">
-        <v>0.9542853856515183</v>
+        <v>1.043919987820462</v>
       </c>
       <c r="N15">
-        <v>0.9591001678768135</v>
+        <v>1.032933351958729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9312721454527868</v>
+        <v>1.025877613434061</v>
       </c>
       <c r="D16">
-        <v>0.9461574853881518</v>
+        <v>1.035218979689825</v>
       </c>
       <c r="E16">
-        <v>0.9474779558048826</v>
+        <v>1.026121895156959</v>
       </c>
       <c r="F16">
-        <v>0.9445213429583508</v>
+        <v>1.041484521364971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9624188137880816</v>
+        <v>1.032264684788369</v>
       </c>
       <c r="K16">
-        <v>0.9615322673532307</v>
+        <v>1.038659278111698</v>
       </c>
       <c r="L16">
-        <v>0.962825306120958</v>
+        <v>1.029594987217836</v>
       </c>
       <c r="M16">
-        <v>0.9599302550541023</v>
+        <v>1.044902600769328</v>
       </c>
       <c r="N16">
-        <v>0.9637855588946416</v>
+        <v>1.033730619043183</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.935077747260195</v>
+        <v>1.026517443274939</v>
       </c>
       <c r="D17">
-        <v>0.9497290427896994</v>
+        <v>1.035848002466259</v>
       </c>
       <c r="E17">
-        <v>0.9506224731985528</v>
+        <v>1.026674528593646</v>
       </c>
       <c r="F17">
-        <v>0.9484083181936929</v>
+        <v>1.04217395540717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9652815804915637</v>
+        <v>1.032763415155289</v>
       </c>
       <c r="K17">
-        <v>0.9646799148525714</v>
+        <v>1.039214372583784</v>
       </c>
       <c r="L17">
-        <v>0.9655554436268677</v>
+        <v>1.030073193787924</v>
       </c>
       <c r="M17">
-        <v>0.9633857348996621</v>
+        <v>1.045518419634303</v>
       </c>
       <c r="N17">
-        <v>0.9666523910552067</v>
+        <v>1.034230057664429</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9372646484036025</v>
+        <v>1.026890434684554</v>
       </c>
       <c r="D18">
-        <v>0.9517827701048315</v>
+        <v>1.036214736947008</v>
       </c>
       <c r="E18">
-        <v>0.9524310502747624</v>
+        <v>1.026996706862236</v>
       </c>
       <c r="F18">
-        <v>0.9506433671910913</v>
+        <v>1.042575945815628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9669267877276824</v>
+        <v>1.033054079667692</v>
       </c>
       <c r="K18">
-        <v>0.9664891521563899</v>
+        <v>1.039537933006811</v>
       </c>
       <c r="L18">
-        <v>0.9671247155606747</v>
+        <v>1.030351901977319</v>
       </c>
       <c r="M18">
-        <v>0.9653721551390282</v>
+        <v>1.045877422653877</v>
       </c>
       <c r="N18">
-        <v>0.9682999346743084</v>
+        <v>1.034521134953779</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9380049255850137</v>
+        <v>1.027017579802031</v>
       </c>
       <c r="D19">
-        <v>0.9524781856020877</v>
+        <v>1.036339756493796</v>
       </c>
       <c r="E19">
-        <v>0.9530435204455704</v>
+        <v>1.027106533899833</v>
       </c>
       <c r="F19">
-        <v>0.9514001741066803</v>
+        <v>1.042712989996007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9674837120864417</v>
+        <v>1.033153148943728</v>
       </c>
       <c r="K19">
-        <v>0.9671016562702236</v>
+        <v>1.039648222307023</v>
       </c>
       <c r="L19">
-        <v>0.967655981683878</v>
+        <v>1.030446896955262</v>
       </c>
       <c r="M19">
-        <v>0.966044685733447</v>
+        <v>1.045999800914294</v>
       </c>
       <c r="N19">
-        <v>0.9688576499295374</v>
+        <v>1.034620344919551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9346728805069058</v>
+        <v>1.026448817456673</v>
       </c>
       <c r="D20">
-        <v>0.9493489365828727</v>
+        <v>1.035780531310927</v>
       </c>
       <c r="E20">
-        <v>0.950287771802841</v>
+        <v>1.026615253236135</v>
       </c>
       <c r="F20">
-        <v>0.947994649237084</v>
+        <v>1.042100000733194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9649770065522497</v>
+        <v>1.032709930638099</v>
       </c>
       <c r="K20">
-        <v>0.9643449997572343</v>
+        <v>1.039154838703062</v>
       </c>
       <c r="L20">
-        <v>0.9652649502163139</v>
+        <v>1.03002190973766</v>
       </c>
       <c r="M20">
-        <v>0.9630180408172585</v>
+        <v>1.045452368221459</v>
       </c>
       <c r="N20">
-        <v>0.9663473845859636</v>
+        <v>1.03417649719309</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9234404797864937</v>
+        <v>1.024597212535539</v>
       </c>
       <c r="D21">
-        <v>0.9388166603666732</v>
+        <v>1.033960483302448</v>
       </c>
       <c r="E21">
-        <v>0.941017854153519</v>
+        <v>1.025016108558192</v>
       </c>
       <c r="F21">
-        <v>0.9365316819480979</v>
+        <v>1.040105381459722</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9565285947267391</v>
+        <v>1.031266183391793</v>
       </c>
       <c r="K21">
-        <v>0.9550579083536815</v>
+        <v>1.037548228271204</v>
       </c>
       <c r="L21">
-        <v>0.957209991447971</v>
+        <v>1.028637609787624</v>
       </c>
       <c r="M21">
-        <v>0.9528242355451642</v>
+        <v>1.043670307689587</v>
       </c>
       <c r="N21">
-        <v>0.9578869750466145</v>
+        <v>1.032730699660094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9160386506186647</v>
+        <v>1.023431048698816</v>
       </c>
       <c r="D22">
-        <v>0.9318901427345493</v>
+        <v>1.032814588148412</v>
       </c>
       <c r="E22">
-        <v>0.9349263545671562</v>
+        <v>1.024009121324592</v>
       </c>
       <c r="F22">
-        <v>0.9289919734542863</v>
+        <v>1.03884988880944</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.950963737165093</v>
+        <v>1.030356243381403</v>
       </c>
       <c r="K22">
-        <v>0.9489434148633658</v>
+        <v>1.036536060063308</v>
       </c>
       <c r="L22">
-        <v>0.9519074013061225</v>
+        <v>1.027765185449951</v>
       </c>
       <c r="M22">
-        <v>0.9461147788838635</v>
+        <v>1.042548027008646</v>
       </c>
       <c r="N22">
-        <v>0.9523142147489325</v>
+        <v>1.031819467430517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9199970304285675</v>
+        <v>1.024049446870191</v>
       </c>
       <c r="D23">
-        <v>0.9355929506102932</v>
+        <v>1.0334222006188</v>
       </c>
       <c r="E23">
-        <v>0.9381822705971156</v>
+        <v>1.024543093780495</v>
       </c>
       <c r="F23">
-        <v>0.93302272287656</v>
+        <v>1.039515586047209</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9539394373628654</v>
+        <v>1.03083883155319</v>
       </c>
       <c r="K23">
-        <v>0.9522127687149481</v>
+        <v>1.037072825528395</v>
       </c>
       <c r="L23">
-        <v>0.9547425470436942</v>
+        <v>1.028227872457806</v>
       </c>
       <c r="M23">
-        <v>0.949702080948606</v>
+        <v>1.043143146614358</v>
       </c>
       <c r="N23">
-        <v>0.9552941407823035</v>
+        <v>1.032302740932862</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9348559234035919</v>
+        <v>1.026479827160454</v>
       </c>
       <c r="D24">
-        <v>0.9495207809838135</v>
+        <v>1.035811019128138</v>
       </c>
       <c r="E24">
-        <v>0.9504390876246458</v>
+        <v>1.026642037723908</v>
       </c>
       <c r="F24">
-        <v>0.9481816673660393</v>
+        <v>1.042133418114489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9651147060883791</v>
+        <v>1.032734098719934</v>
       </c>
       <c r="K24">
-        <v>0.9644964157249373</v>
+        <v>1.039181740171068</v>
       </c>
       <c r="L24">
-        <v>0.9653962829849458</v>
+        <v>1.030045083477312</v>
       </c>
       <c r="M24">
-        <v>0.9631842754872402</v>
+        <v>1.045482214610346</v>
       </c>
       <c r="N24">
-        <v>0.9664852796712289</v>
+        <v>1.034200699596373</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.950824595741794</v>
+        <v>1.029291935457606</v>
       </c>
       <c r="D25">
-        <v>0.9645385070241504</v>
+        <v>1.038576723521798</v>
       </c>
       <c r="E25">
-        <v>0.9636702052461862</v>
+        <v>1.029071367504201</v>
       </c>
       <c r="F25">
-        <v>0.9645251231259154</v>
+        <v>1.045165632324112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9771283271288784</v>
+        <v>1.034924208806534</v>
       </c>
       <c r="K25">
-        <v>0.9777134477629859</v>
+        <v>1.041620551846369</v>
       </c>
       <c r="L25">
-        <v>0.9768599525889292</v>
+        <v>1.032145194206914</v>
       </c>
       <c r="M25">
-        <v>0.9777002918305925</v>
+        <v>1.048189016084252</v>
       </c>
       <c r="N25">
-        <v>0.9785159614315873</v>
+        <v>1.036393919890506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031528711567798</v>
+        <v>0.9627160199728325</v>
       </c>
       <c r="D2">
-        <v>1.040777922395563</v>
+        <v>0.9757553883943383</v>
       </c>
       <c r="E2">
-        <v>1.031004210401216</v>
+        <v>0.973560785662723</v>
       </c>
       <c r="F2">
-        <v>1.047580054212718</v>
+        <v>0.9767333462384821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.036663938705474</v>
+        <v>0.9860720965965794</v>
       </c>
       <c r="K2">
-        <v>1.043559307405298</v>
+        <v>0.9875631516914951</v>
       </c>
       <c r="L2">
-        <v>1.033813583220027</v>
+        <v>0.9854011775273775</v>
       </c>
       <c r="M2">
-        <v>1.050342295136892</v>
+        <v>0.9885266296178019</v>
       </c>
       <c r="N2">
-        <v>1.038136120405452</v>
+        <v>0.9874724320777971</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033149473229332</v>
+        <v>0.9709328228240012</v>
       </c>
       <c r="D3">
-        <v>1.042373664865802</v>
+        <v>0.9835230996237686</v>
       </c>
       <c r="E3">
-        <v>1.032405029692096</v>
+        <v>0.9804131265094914</v>
       </c>
       <c r="F3">
-        <v>1.049331019988976</v>
+        <v>0.9851892302709244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.037923198507259</v>
+        <v>0.9922485226702408</v>
       </c>
       <c r="K3">
-        <v>1.04496347961889</v>
+        <v>0.9943712389078059</v>
       </c>
       <c r="L3">
-        <v>1.03502128702245</v>
+        <v>0.9913029152141064</v>
       </c>
       <c r="M3">
-        <v>1.051902701189664</v>
+        <v>0.9960151921539085</v>
       </c>
       <c r="N3">
-        <v>1.039397168500594</v>
+        <v>0.993657629384929</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034196746797847</v>
+        <v>0.9760766648921205</v>
       </c>
       <c r="D4">
-        <v>1.04340511938952</v>
+        <v>0.9883930003279568</v>
       </c>
       <c r="E4">
-        <v>1.033310310487999</v>
+        <v>0.9847101236506223</v>
       </c>
       <c r="F4">
-        <v>1.050463109509821</v>
+        <v>0.9904916278752748</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.038736259236988</v>
+        <v>0.9961127814597162</v>
       </c>
       <c r="K4">
-        <v>1.045870500420916</v>
+        <v>0.9986335600929613</v>
       </c>
       <c r="L4">
-        <v>1.035801096219006</v>
+        <v>0.9949966554315434</v>
       </c>
       <c r="M4">
-        <v>1.0529110404373</v>
+        <v>1.000706181598689</v>
       </c>
       <c r="N4">
-        <v>1.040211383869819</v>
+        <v>0.9975273758651222</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034636679974207</v>
+        <v>0.9782003950615655</v>
       </c>
       <c r="D5">
-        <v>1.043838489932026</v>
+        <v>0.9904052672022478</v>
       </c>
       <c r="E5">
-        <v>1.033690625064755</v>
+        <v>0.9864858385451865</v>
       </c>
       <c r="F5">
-        <v>1.050938834856217</v>
+        <v>0.9926828950784765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.039077655643758</v>
+        <v>0.9977075823121897</v>
       </c>
       <c r="K5">
-        <v>1.046251444461984</v>
+        <v>1.000393342051789</v>
       </c>
       <c r="L5">
-        <v>1.036128539092527</v>
+        <v>0.9965213786265009</v>
       </c>
       <c r="M5">
-        <v>1.05333463351988</v>
+        <v>1.002643600927009</v>
       </c>
       <c r="N5">
-        <v>1.040553265098645</v>
+        <v>0.9991244415177323</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034710527025688</v>
+        <v>0.9785547797689844</v>
       </c>
       <c r="D6">
-        <v>1.043911240204761</v>
+        <v>0.990741146088517</v>
       </c>
       <c r="E6">
-        <v>1.033754466224418</v>
+        <v>0.98678224179568</v>
       </c>
       <c r="F6">
-        <v>1.051018699525775</v>
+        <v>0.9930486700522475</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.039134953541415</v>
+        <v>0.9979736657740145</v>
       </c>
       <c r="K6">
-        <v>1.0463153853514</v>
+        <v>1.00068699307582</v>
       </c>
       <c r="L6">
-        <v>1.036183495603341</v>
+        <v>0.996775786768188</v>
       </c>
       <c r="M6">
-        <v>1.053405738610759</v>
+        <v>1.002966932869575</v>
       </c>
       <c r="N6">
-        <v>1.040610644365889</v>
+        <v>0.999390902848593</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034202626530109</v>
+        <v>0.976105191166154</v>
       </c>
       <c r="D7">
-        <v>1.043410911088182</v>
+        <v>0.9884200230324035</v>
       </c>
       <c r="E7">
-        <v>1.03331539330175</v>
+        <v>0.9847339690870894</v>
       </c>
       <c r="F7">
-        <v>1.050469466965877</v>
+        <v>0.990521053174979</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.038740822609223</v>
+        <v>0.996134205672232</v>
       </c>
       <c r="K7">
-        <v>1.045875592045448</v>
+        <v>0.9986571978452236</v>
       </c>
       <c r="L7">
-        <v>1.035805473044411</v>
+        <v>0.9950171370938847</v>
       </c>
       <c r="M7">
-        <v>1.052916701723883</v>
+        <v>1.000732202801206</v>
       </c>
       <c r="N7">
-        <v>1.040215953722566</v>
+        <v>0.9975488305024769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03207676590428</v>
+        <v>0.9655304364228274</v>
       </c>
       <c r="D8">
-        <v>1.041317444217922</v>
+        <v>0.9784144030833812</v>
       </c>
       <c r="E8">
-        <v>1.031477865419341</v>
+        <v>0.9759062080065487</v>
       </c>
       <c r="F8">
-        <v>1.048171994757702</v>
+        <v>0.979627735755353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.03708988171624</v>
+        <v>0.9881880716675091</v>
       </c>
       <c r="K8">
-        <v>1.044034184986659</v>
+        <v>0.9898949274385926</v>
       </c>
       <c r="L8">
-        <v>1.034222079782421</v>
+        <v>0.9874227479175258</v>
       </c>
       <c r="M8">
-        <v>1.050869926735621</v>
+        <v>0.9910909214371503</v>
       </c>
       <c r="N8">
-        <v>1.038562668304149</v>
+        <v>0.9895914120760331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028319006331301</v>
+        <v>0.9454357854714968</v>
       </c>
       <c r="D9">
-        <v>1.037619640883564</v>
+        <v>0.9594648480208543</v>
       </c>
       <c r="E9">
-        <v>1.02823078613257</v>
+        <v>0.9591985942730165</v>
       </c>
       <c r="F9">
-        <v>1.044116151614281</v>
+        <v>0.9590035463047391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.034166833571057</v>
+        <v>0.973074249054496</v>
       </c>
       <c r="K9">
-        <v>1.040776944220929</v>
+        <v>0.9732516984640256</v>
       </c>
       <c r="L9">
-        <v>1.031418918133991</v>
+        <v>0.9729902537672701</v>
       </c>
       <c r="M9">
-        <v>1.047252478801198</v>
+        <v>0.9727987309411723</v>
       </c>
       <c r="N9">
-        <v>1.035635469095322</v>
+        <v>0.9744561261013298</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025805277719833</v>
+        <v>0.930837496997833</v>
       </c>
       <c r="D10">
-        <v>1.035147871614437</v>
+        <v>0.9457497535656161</v>
       </c>
       <c r="E10">
-        <v>1.026059419911654</v>
+        <v>0.9471190341328202</v>
       </c>
       <c r="F10">
-        <v>1.041406588782685</v>
+        <v>0.9440775938639203</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.032208291231637</v>
+        <v>0.9620918683333795</v>
       </c>
       <c r="K10">
-        <v>1.038596517508379</v>
+        <v>0.9611728290757305</v>
       </c>
       <c r="L10">
-        <v>1.029540915074887</v>
+        <v>0.9625135481731178</v>
       </c>
       <c r="M10">
-        <v>1.044832980821995</v>
+        <v>0.9595356971506794</v>
       </c>
       <c r="N10">
-        <v>1.033674145401131</v>
+        <v>0.9634581491398926</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024714625673881</v>
+        <v>0.9241711328819365</v>
       </c>
       <c r="D11">
-        <v>1.034075872470286</v>
+        <v>0.9395009964889997</v>
       </c>
       <c r="E11">
-        <v>1.025117502779489</v>
+        <v>0.9416199076254226</v>
       </c>
       <c r="F11">
-        <v>1.04023182003385</v>
+        <v>0.9372765436596293</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.031357771619474</v>
+        <v>0.9570780378601326</v>
       </c>
       <c r="K11">
-        <v>1.037650123774023</v>
+        <v>0.9556617327084953</v>
       </c>
       <c r="L11">
-        <v>1.028725424021697</v>
+        <v>0.957733675142958</v>
       </c>
       <c r="M11">
-        <v>1.043783306098854</v>
+        <v>0.9534868924882046</v>
       </c>
       <c r="N11">
-        <v>1.032822417953563</v>
+        <v>0.9584371984522791</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024309166753347</v>
+        <v>0.921636923831057</v>
       </c>
       <c r="D12">
-        <v>1.033677415882243</v>
+        <v>0.9371278965501677</v>
       </c>
       <c r="E12">
-        <v>1.02476736724914</v>
+        <v>0.9395323058004684</v>
       </c>
       <c r="F12">
-        <v>1.039795218422661</v>
+        <v>0.934693516156285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.031041471582674</v>
+        <v>0.9551724268685365</v>
       </c>
       <c r="K12">
-        <v>1.037298241350387</v>
+        <v>0.9535676034263388</v>
       </c>
       <c r="L12">
-        <v>1.028422159079493</v>
+        <v>0.9559175080223237</v>
       </c>
       <c r="M12">
-        <v>1.043393095180531</v>
+        <v>0.9511887887158524</v>
       </c>
       <c r="N12">
-        <v>1.032505668734431</v>
+        <v>0.9565288812744985</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024396154763193</v>
+        <v>0.9221832563120813</v>
       </c>
       <c r="D13">
-        <v>1.033762898510582</v>
+        <v>0.9376393866941195</v>
       </c>
       <c r="E13">
-        <v>1.02484248468764</v>
+        <v>0.9399822216470796</v>
       </c>
       <c r="F13">
-        <v>1.039888882034356</v>
+        <v>0.9352502632205969</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.031109336333286</v>
+        <v>0.9555832233196643</v>
       </c>
       <c r="K13">
-        <v>1.037373737323711</v>
+        <v>0.9540190179486534</v>
       </c>
       <c r="L13">
-        <v>1.028487226663756</v>
+        <v>0.9563089982536895</v>
       </c>
       <c r="M13">
-        <v>1.043476811196233</v>
+        <v>0.9516841574815883</v>
       </c>
       <c r="N13">
-        <v>1.032573629860773</v>
+        <v>0.9569402611037058</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024681117369311</v>
+        <v>0.9239628773878775</v>
       </c>
       <c r="D14">
-        <v>1.034042941468732</v>
+        <v>0.9393059315548922</v>
       </c>
       <c r="E14">
-        <v>1.025088565942884</v>
+        <v>0.9414482928970449</v>
       </c>
       <c r="F14">
-        <v>1.040195735385687</v>
+        <v>0.9370642272851296</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.03133163395268</v>
+        <v>0.956921430023194</v>
       </c>
       <c r="K14">
-        <v>1.037621044259477</v>
+        <v>0.9554896224188545</v>
       </c>
       <c r="L14">
-        <v>1.028700363347615</v>
+        <v>0.9575844070650444</v>
       </c>
       <c r="M14">
-        <v>1.043751057638611</v>
+        <v>0.9532980113863526</v>
       </c>
       <c r="N14">
-        <v>1.032796243168284</v>
+        <v>0.9582803682142492</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02485664650103</v>
+        <v>0.9250514699743426</v>
       </c>
       <c r="D15">
-        <v>1.034215449256043</v>
+        <v>0.9403256713865062</v>
       </c>
       <c r="E15">
-        <v>1.025240149235507</v>
+        <v>0.9423454759645283</v>
       </c>
       <c r="F15">
-        <v>1.040384765635166</v>
+        <v>0.9381741443991107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.031468548309034</v>
+        <v>0.9577400671271717</v>
       </c>
       <c r="K15">
-        <v>1.037773371563874</v>
+        <v>0.956389314852676</v>
       </c>
       <c r="L15">
-        <v>1.028831636541383</v>
+        <v>0.9583646986021244</v>
       </c>
       <c r="M15">
-        <v>1.043919987820462</v>
+        <v>0.9542853856515182</v>
       </c>
       <c r="N15">
-        <v>1.032933351958729</v>
+        <v>0.9591001678768134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025877613434061</v>
+        <v>0.9312721454527848</v>
       </c>
       <c r="D16">
-        <v>1.035218979689825</v>
+        <v>0.9461574853881495</v>
       </c>
       <c r="E16">
-        <v>1.026121895156959</v>
+        <v>0.9474779558048805</v>
       </c>
       <c r="F16">
-        <v>1.041484521364971</v>
+        <v>0.9445213429583486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.032264684788369</v>
+        <v>0.9624188137880797</v>
       </c>
       <c r="K16">
-        <v>1.038659278111698</v>
+        <v>0.9615322673532284</v>
       </c>
       <c r="L16">
-        <v>1.029594987217836</v>
+        <v>0.9628253061209558</v>
       </c>
       <c r="M16">
-        <v>1.044902600769328</v>
+        <v>0.9599302550541</v>
       </c>
       <c r="N16">
-        <v>1.033730619043183</v>
+        <v>0.9637855588946398</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026517443274939</v>
+        <v>0.9350777472601934</v>
       </c>
       <c r="D17">
-        <v>1.035848002466259</v>
+        <v>0.9497290427896976</v>
       </c>
       <c r="E17">
-        <v>1.026674528593646</v>
+        <v>0.9506224731985514</v>
       </c>
       <c r="F17">
-        <v>1.04217395540717</v>
+        <v>0.9484083181936915</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.032763415155289</v>
+        <v>0.9652815804915622</v>
       </c>
       <c r="K17">
-        <v>1.039214372583784</v>
+        <v>0.9646799148525699</v>
       </c>
       <c r="L17">
-        <v>1.030073193787924</v>
+        <v>0.9655554436268663</v>
       </c>
       <c r="M17">
-        <v>1.045518419634303</v>
+        <v>0.9633857348996606</v>
       </c>
       <c r="N17">
-        <v>1.034230057664429</v>
+        <v>0.966652391055205</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026890434684554</v>
+        <v>0.9372646484036029</v>
       </c>
       <c r="D18">
-        <v>1.036214736947008</v>
+        <v>0.9517827701048319</v>
       </c>
       <c r="E18">
-        <v>1.026996706862236</v>
+        <v>0.9524310502747627</v>
       </c>
       <c r="F18">
-        <v>1.042575945815628</v>
+        <v>0.950643367191092</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.033054079667692</v>
+        <v>0.9669267877276829</v>
       </c>
       <c r="K18">
-        <v>1.039537933006811</v>
+        <v>0.9664891521563905</v>
       </c>
       <c r="L18">
-        <v>1.030351901977319</v>
+        <v>0.967124715560675</v>
       </c>
       <c r="M18">
-        <v>1.045877422653877</v>
+        <v>0.9653721551390287</v>
       </c>
       <c r="N18">
-        <v>1.034521134953779</v>
+        <v>0.968299934674309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027017579802031</v>
+        <v>0.9380049255850149</v>
       </c>
       <c r="D19">
-        <v>1.036339756493796</v>
+        <v>0.9524781856020891</v>
       </c>
       <c r="E19">
-        <v>1.027106533899833</v>
+        <v>0.9530435204455715</v>
       </c>
       <c r="F19">
-        <v>1.042712989996007</v>
+        <v>0.9514001741066815</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.033153148943728</v>
+        <v>0.9674837120864428</v>
       </c>
       <c r="K19">
-        <v>1.039648222307023</v>
+        <v>0.9671016562702252</v>
       </c>
       <c r="L19">
-        <v>1.030446896955262</v>
+        <v>0.967655981683879</v>
       </c>
       <c r="M19">
-        <v>1.045999800914294</v>
+        <v>0.9660446857334481</v>
       </c>
       <c r="N19">
-        <v>1.034620344919551</v>
+        <v>0.9688576499295385</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026448817456673</v>
+        <v>0.9346728805069072</v>
       </c>
       <c r="D20">
-        <v>1.035780531310927</v>
+        <v>0.9493489365828739</v>
       </c>
       <c r="E20">
-        <v>1.026615253236135</v>
+        <v>0.9502877718028422</v>
       </c>
       <c r="F20">
-        <v>1.042100000733194</v>
+        <v>0.9479946492370857</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.032709930638099</v>
+        <v>0.9649770065522509</v>
       </c>
       <c r="K20">
-        <v>1.039154838703062</v>
+        <v>0.9643449997572355</v>
       </c>
       <c r="L20">
-        <v>1.03002190973766</v>
+        <v>0.9652649502163151</v>
       </c>
       <c r="M20">
-        <v>1.045452368221459</v>
+        <v>0.9630180408172602</v>
       </c>
       <c r="N20">
-        <v>1.03417649719309</v>
+        <v>0.9663473845859649</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024597212535539</v>
+        <v>0.9234404797864934</v>
       </c>
       <c r="D21">
-        <v>1.033960483302448</v>
+        <v>0.938816660366673</v>
       </c>
       <c r="E21">
-        <v>1.025016108558192</v>
+        <v>0.941017854153519</v>
       </c>
       <c r="F21">
-        <v>1.040105381459722</v>
+        <v>0.9365316819480981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.031266183391793</v>
+        <v>0.9565285947267389</v>
       </c>
       <c r="K21">
-        <v>1.037548228271204</v>
+        <v>0.9550579083536817</v>
       </c>
       <c r="L21">
-        <v>1.028637609787624</v>
+        <v>0.9572099914479707</v>
       </c>
       <c r="M21">
-        <v>1.043670307689587</v>
+        <v>0.9528242355451642</v>
       </c>
       <c r="N21">
-        <v>1.032730699660094</v>
+        <v>0.9578869750466141</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023431048698816</v>
+        <v>0.9160386506186644</v>
       </c>
       <c r="D22">
-        <v>1.032814588148412</v>
+        <v>0.9318901427345487</v>
       </c>
       <c r="E22">
-        <v>1.024009121324592</v>
+        <v>0.9349263545671557</v>
       </c>
       <c r="F22">
-        <v>1.03884988880944</v>
+        <v>0.9289919734542859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.030356243381403</v>
+        <v>0.9509637371650924</v>
       </c>
       <c r="K22">
-        <v>1.036536060063308</v>
+        <v>0.9489434148633653</v>
       </c>
       <c r="L22">
-        <v>1.027765185449951</v>
+        <v>0.9519074013061219</v>
       </c>
       <c r="M22">
-        <v>1.042548027008646</v>
+        <v>0.946114778883863</v>
       </c>
       <c r="N22">
-        <v>1.031819467430517</v>
+        <v>0.9523142147489322</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024049446870191</v>
+        <v>0.9199970304285674</v>
       </c>
       <c r="D23">
-        <v>1.0334222006188</v>
+        <v>0.9355929506102927</v>
       </c>
       <c r="E23">
-        <v>1.024543093780495</v>
+        <v>0.9381822705971153</v>
       </c>
       <c r="F23">
-        <v>1.039515586047209</v>
+        <v>0.9330227228765596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.03083883155319</v>
+        <v>0.9539394373628654</v>
       </c>
       <c r="K23">
-        <v>1.037072825528395</v>
+        <v>0.9522127687149476</v>
       </c>
       <c r="L23">
-        <v>1.028227872457806</v>
+        <v>0.9547425470436939</v>
       </c>
       <c r="M23">
-        <v>1.043143146614358</v>
+        <v>0.9497020809486056</v>
       </c>
       <c r="N23">
-        <v>1.032302740932862</v>
+        <v>0.9552941407823032</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026479827160454</v>
+        <v>0.9348559234035914</v>
       </c>
       <c r="D24">
-        <v>1.035811019128138</v>
+        <v>0.9495207809838132</v>
       </c>
       <c r="E24">
-        <v>1.026642037723908</v>
+        <v>0.9504390876246449</v>
       </c>
       <c r="F24">
-        <v>1.042133418114489</v>
+        <v>0.9481816673660383</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.032734098719934</v>
+        <v>0.9651147060883786</v>
       </c>
       <c r="K24">
-        <v>1.039181740171068</v>
+        <v>0.9644964157249367</v>
       </c>
       <c r="L24">
-        <v>1.030045083477312</v>
+        <v>0.9653962829849452</v>
       </c>
       <c r="M24">
-        <v>1.045482214610346</v>
+        <v>0.9631842754872396</v>
       </c>
       <c r="N24">
-        <v>1.034200699596373</v>
+        <v>0.9664852796712282</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029291935457606</v>
+        <v>0.9508245957417943</v>
       </c>
       <c r="D25">
-        <v>1.038576723521798</v>
+        <v>0.964538507024151</v>
       </c>
       <c r="E25">
-        <v>1.029071367504201</v>
+        <v>0.9636702052461866</v>
       </c>
       <c r="F25">
-        <v>1.045165632324112</v>
+        <v>0.9645251231259158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.034924208806534</v>
+        <v>0.9771283271288789</v>
       </c>
       <c r="K25">
-        <v>1.041620551846369</v>
+        <v>0.9777134477629864</v>
       </c>
       <c r="L25">
-        <v>1.032145194206914</v>
+        <v>0.9768599525889295</v>
       </c>
       <c r="M25">
-        <v>1.048189016084252</v>
+        <v>0.9777002918305931</v>
       </c>
       <c r="N25">
-        <v>1.036393919890506</v>
+        <v>0.9785159614315876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9627160199728325</v>
+        <v>0.9630621273292536</v>
       </c>
       <c r="D2">
-        <v>0.9757553883943383</v>
+        <v>0.9823436329420584</v>
       </c>
       <c r="E2">
-        <v>0.973560785662723</v>
+        <v>0.9745056993759165</v>
       </c>
       <c r="F2">
-        <v>0.9767333462384821</v>
+        <v>0.96630118261165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.033400655960771</v>
       </c>
       <c r="J2">
-        <v>0.9860720965965794</v>
+        <v>0.9864067103895084</v>
       </c>
       <c r="K2">
-        <v>0.9875631516914951</v>
+        <v>0.9940545555864584</v>
       </c>
       <c r="L2">
-        <v>0.9854011775273775</v>
+        <v>0.9863320196958899</v>
       </c>
       <c r="M2">
-        <v>0.9885266296178019</v>
+        <v>0.9782508534879939</v>
       </c>
       <c r="N2">
-        <v>0.9874724320777971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9993008936960396</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>0.9913576165634237</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.006864679720478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9709328228240012</v>
+        <v>0.9710010997694829</v>
       </c>
       <c r="D3">
-        <v>0.9835230996237686</v>
+        <v>0.9884768922048266</v>
       </c>
       <c r="E3">
-        <v>0.9804131265094914</v>
+        <v>0.9810374749998111</v>
       </c>
       <c r="F3">
-        <v>0.9851892302709244</v>
+        <v>0.9777385268437374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.037022520135223</v>
       </c>
       <c r="J3">
-        <v>0.9922485226702408</v>
+        <v>0.992314782101245</v>
       </c>
       <c r="K3">
-        <v>0.9943712389078059</v>
+        <v>0.9992593679511949</v>
       </c>
       <c r="L3">
-        <v>0.9913029152141064</v>
+        <v>0.9919188756760776</v>
       </c>
       <c r="M3">
-        <v>0.9960151921539085</v>
+        <v>0.9886644008822326</v>
       </c>
       <c r="N3">
-        <v>0.993657629384929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.001302250543978</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>0.9995998016007054</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.010542497733708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9760766648921205</v>
+        <v>0.97590739659299</v>
       </c>
       <c r="D4">
-        <v>0.9883930003279568</v>
+        <v>0.9922735069834505</v>
       </c>
       <c r="E4">
-        <v>0.9847101236506223</v>
+        <v>0.9850795235731432</v>
       </c>
       <c r="F4">
-        <v>0.9904916278752748</v>
+        <v>0.9845781263179406</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.039127242217387</v>
       </c>
       <c r="J4">
-        <v>0.9961127814597162</v>
+        <v>0.9959481382933412</v>
       </c>
       <c r="K4">
-        <v>0.9986335600929613</v>
+        <v>1.002466087237596</v>
       </c>
       <c r="L4">
-        <v>0.9949966554315434</v>
+        <v>0.9953614249316597</v>
       </c>
       <c r="M4">
-        <v>1.000706181598689</v>
+        <v>0.9948663137340888</v>
       </c>
       <c r="N4">
-        <v>0.9975273758651222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.002532072208928</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.004508481194636</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.012811050016363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9782003950615655</v>
+        <v>0.9779284015350729</v>
       </c>
       <c r="D5">
-        <v>0.9904052672022478</v>
+        <v>0.9938421459698328</v>
       </c>
       <c r="E5">
-        <v>0.9864858385451865</v>
+        <v>0.9867465731810037</v>
       </c>
       <c r="F5">
-        <v>0.9926828950784765</v>
+        <v>0.9873376310826806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.039961333386887</v>
       </c>
       <c r="J5">
-        <v>0.9977075823121897</v>
+        <v>0.9974427748759045</v>
       </c>
       <c r="K5">
-        <v>1.000393342051789</v>
+        <v>1.003788981479985</v>
       </c>
       <c r="L5">
-        <v>0.9965213786265009</v>
+        <v>0.996778941155518</v>
       </c>
       <c r="M5">
-        <v>1.002643600927009</v>
+        <v>0.9973628159332345</v>
       </c>
       <c r="N5">
-        <v>0.9991244415177323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.003038686413645</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.006484397741343</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.013753958023059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9785547797689844</v>
+        <v>0.9782752598011087</v>
       </c>
       <c r="D6">
-        <v>0.990741146088517</v>
+        <v>0.9941153888092696</v>
       </c>
       <c r="E6">
-        <v>0.98678224179568</v>
+        <v>0.9870336927622816</v>
       </c>
       <c r="F6">
-        <v>0.9930486700522475</v>
+        <v>0.9877982869338167</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.040098974237928</v>
       </c>
       <c r="J6">
-        <v>0.9979736657740145</v>
+        <v>0.9977014886982698</v>
       </c>
       <c r="K6">
-        <v>1.00068699307582</v>
+        <v>1.004020953703032</v>
       </c>
       <c r="L6">
-        <v>0.996775786768188</v>
+        <v>0.9970241940521167</v>
       </c>
       <c r="M6">
-        <v>1.002966932869575</v>
+        <v>0.9977795450302113</v>
       </c>
       <c r="N6">
-        <v>0.999390902848593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.003127497010615</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.006814227380821</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.013927056520783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.976105191166154</v>
+        <v>0.9759626769492794</v>
       </c>
       <c r="D7">
-        <v>0.9884200230324035</v>
+        <v>0.9923269787745116</v>
       </c>
       <c r="E7">
-        <v>0.9847339690870894</v>
+        <v>0.9851276723156293</v>
       </c>
       <c r="F7">
-        <v>0.990521053174979</v>
+        <v>0.984626181823606</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.039139790449203</v>
       </c>
       <c r="J7">
-        <v>0.996134205672232</v>
+        <v>0.9959955836608354</v>
       </c>
       <c r="K7">
-        <v>0.9986571978452236</v>
+        <v>1.002515868219944</v>
       </c>
       <c r="L7">
-        <v>0.9950171370938847</v>
+        <v>0.9954059073742403</v>
       </c>
       <c r="M7">
-        <v>1.000732202801206</v>
+        <v>0.9949107012205219</v>
       </c>
       <c r="N7">
-        <v>0.9975488305024769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.002551258496396</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.004543612789402</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.012867119186099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9655304364228274</v>
+        <v>0.9658329243860856</v>
       </c>
       <c r="D8">
-        <v>0.9784144030833812</v>
+        <v>0.9844962149048132</v>
       </c>
       <c r="E8">
-        <v>0.9759062080065487</v>
+        <v>0.9767876568448706</v>
       </c>
       <c r="F8">
-        <v>0.979627735755353</v>
+        <v>0.9703073453813245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.034679979518087</v>
       </c>
       <c r="J8">
-        <v>0.9881880716675091</v>
+        <v>0.9884808986597244</v>
       </c>
       <c r="K8">
-        <v>0.9898949274385926</v>
+        <v>0.9958903725350376</v>
       </c>
       <c r="L8">
-        <v>0.9874227479175258</v>
+        <v>0.9882915132021572</v>
       </c>
       <c r="M8">
-        <v>0.9910909214371503</v>
+        <v>0.9819051324688914</v>
       </c>
       <c r="N8">
-        <v>0.9895914120760331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.000007921118186</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>0.9942499427740412</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.008186773235877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9454357854714968</v>
+        <v>0.9458610522952946</v>
       </c>
       <c r="D9">
-        <v>0.9594648480208543</v>
+        <v>0.9690916287940193</v>
       </c>
       <c r="E9">
-        <v>0.9591985942730165</v>
+        <v>0.960385584845141</v>
       </c>
       <c r="F9">
-        <v>0.9590035463047391</v>
+        <v>0.9398011991416421</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.024603100227408</v>
       </c>
       <c r="J9">
-        <v>0.973074249054496</v>
+        <v>0.9734819341957046</v>
       </c>
       <c r="K9">
-        <v>0.9732516984640256</v>
+        <v>0.9827069020377931</v>
       </c>
       <c r="L9">
-        <v>0.9729902537672701</v>
+        <v>0.9741558317375344</v>
       </c>
       <c r="M9">
-        <v>0.9727987309411723</v>
+        <v>0.9539528028357629</v>
       </c>
       <c r="N9">
-        <v>0.9744561261013298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9949166524586671</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>0.9721255834887588</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>0.9988608853464472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.930837496997833</v>
+        <v>0.9303266558054826</v>
       </c>
       <c r="D10">
-        <v>0.9457497535656161</v>
+        <v>0.957142029438228</v>
       </c>
       <c r="E10">
-        <v>0.9471190341328202</v>
+        <v>0.9476599019571696</v>
       </c>
       <c r="F10">
-        <v>0.9440775938639203</v>
+        <v>0.9135077648117793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.015479418599872</v>
       </c>
       <c r="J10">
-        <v>0.9620918683333795</v>
+        <v>0.9616059246980444</v>
       </c>
       <c r="K10">
-        <v>0.9611728290757305</v>
+        <v>0.9723307537213091</v>
       </c>
       <c r="L10">
-        <v>0.9625135481731178</v>
+        <v>0.96304316421819</v>
       </c>
       <c r="M10">
-        <v>0.9595356971506794</v>
+        <v>0.9296364455526024</v>
       </c>
       <c r="N10">
-        <v>0.9634581491398926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.990899522728535</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.9529357904818727</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>0.9915411720519848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9241711328819365</v>
+        <v>0.9207981497168836</v>
       </c>
       <c r="D11">
-        <v>0.9395009964889997</v>
+        <v>0.9497790754895215</v>
       </c>
       <c r="E11">
-        <v>0.9416199076254226</v>
+        <v>0.939865740883447</v>
       </c>
       <c r="F11">
-        <v>0.9372765436596293</v>
+        <v>0.8965182677186407</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.010049464027892</v>
       </c>
       <c r="J11">
-        <v>0.9570780378601326</v>
+        <v>0.9538820186678467</v>
       </c>
       <c r="K11">
-        <v>0.9556617327084953</v>
+        <v>0.965714579892383</v>
       </c>
       <c r="L11">
-        <v>0.957733675142958</v>
+        <v>0.9560183719341302</v>
       </c>
       <c r="M11">
-        <v>0.9534868924882046</v>
+        <v>0.9136965796066516</v>
       </c>
       <c r="N11">
-        <v>0.9584371984522791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9884661786028046</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.9408111853862123</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>0.986897626009725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.921636923831057</v>
+        <v>0.9155462177448851</v>
       </c>
       <c r="D12">
-        <v>0.9371278965501677</v>
+        <v>0.9456738314419506</v>
       </c>
       <c r="E12">
-        <v>0.9395323058004684</v>
+        <v>0.9355492489825818</v>
       </c>
       <c r="F12">
-        <v>0.934693516156285</v>
+        <v>0.886996181652459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.007358535929998</v>
       </c>
       <c r="J12">
-        <v>0.9551724268685365</v>
+        <v>0.9494109590604479</v>
       </c>
       <c r="K12">
-        <v>0.9535676034263388</v>
+        <v>0.9619214880443522</v>
       </c>
       <c r="L12">
-        <v>0.9559175080223237</v>
+        <v>0.9520249450937076</v>
       </c>
       <c r="M12">
-        <v>0.9511887887158524</v>
+        <v>0.9046638034882006</v>
       </c>
       <c r="N12">
-        <v>0.9565288812744985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9871012633440504</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9340325453773146</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>0.9842154173206989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9221832563120813</v>
+        <v>0.9137405676001268</v>
       </c>
       <c r="D13">
-        <v>0.9376393866941195</v>
+        <v>0.944207174490946</v>
       </c>
       <c r="E13">
-        <v>0.9399822216470796</v>
+        <v>0.9340392132218831</v>
       </c>
       <c r="F13">
-        <v>0.9352502632205969</v>
+        <v>0.8841057043320465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.007154159378261</v>
       </c>
       <c r="J13">
-        <v>0.9555832233196643</v>
+        <v>0.9475961228349186</v>
       </c>
       <c r="K13">
-        <v>0.9540190179486534</v>
+        <v>0.9604395180865761</v>
       </c>
       <c r="L13">
-        <v>0.9563089982536895</v>
+        <v>0.9505007550721866</v>
       </c>
       <c r="M13">
-        <v>0.9516841574815883</v>
+        <v>0.901796897837249</v>
       </c>
       <c r="N13">
-        <v>0.9569402611037058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9866218012475337</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.9320723075952563</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>0.9831647867157101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9239628773878775</v>
+        <v>0.9140802692631387</v>
       </c>
       <c r="D14">
-        <v>0.9393059315548922</v>
+        <v>0.9444094258500607</v>
       </c>
       <c r="E14">
-        <v>0.9414482928970449</v>
+        <v>0.9342865445454529</v>
       </c>
       <c r="F14">
-        <v>0.9370642272851296</v>
+        <v>0.8852175618668364</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.008178819813223</v>
       </c>
       <c r="J14">
-        <v>0.956921430023194</v>
+        <v>0.9475638073217458</v>
       </c>
       <c r="K14">
-        <v>0.9554896224188545</v>
+        <v>0.9604802527366431</v>
       </c>
       <c r="L14">
-        <v>0.9575844070650444</v>
+        <v>0.9505828436661847</v>
       </c>
       <c r="M14">
-        <v>0.9532980113863526</v>
+        <v>0.9027060425747336</v>
       </c>
       <c r="N14">
-        <v>0.9582803682142492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.986697390493647</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9329797944366244</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>0.9831951228371643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9250514699743426</v>
+        <v>0.9150053399718084</v>
       </c>
       <c r="D15">
-        <v>0.9403256713865062</v>
+        <v>0.9451108506572279</v>
       </c>
       <c r="E15">
-        <v>0.9423454759645283</v>
+        <v>0.9350365838863322</v>
       </c>
       <c r="F15">
-        <v>0.9381741443991107</v>
+        <v>0.8870930499056762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.008983118175024</v>
       </c>
       <c r="J15">
-        <v>0.9577400671271717</v>
+        <v>0.948221851085953</v>
       </c>
       <c r="K15">
-        <v>0.956389314852676</v>
+        <v>0.961069664316397</v>
       </c>
       <c r="L15">
-        <v>0.9583646986021244</v>
+        <v>0.9512177598934882</v>
       </c>
       <c r="M15">
-        <v>0.9542853856515182</v>
+        <v>0.9044262915113526</v>
       </c>
       <c r="N15">
-        <v>0.9591001678768134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.986938223522855</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.9343797839442041</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>0.9836182260480815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9312721454527848</v>
+        <v>0.9230049658422258</v>
       </c>
       <c r="D16">
-        <v>0.9461574853881495</v>
+        <v>0.9512899129040482</v>
       </c>
       <c r="E16">
-        <v>0.9474779558048805</v>
+        <v>0.9415944275231459</v>
       </c>
       <c r="F16">
-        <v>0.9445213429583486</v>
+        <v>0.9019770792240422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.013983787610425</v>
       </c>
       <c r="J16">
-        <v>0.9624188137880797</v>
+        <v>0.9545575858153732</v>
       </c>
       <c r="K16">
-        <v>0.9615322673532284</v>
+        <v>0.9665586366483933</v>
       </c>
       <c r="L16">
-        <v>0.9628253061209558</v>
+        <v>0.9570647869855031</v>
       </c>
       <c r="M16">
-        <v>0.9599302550541</v>
+        <v>0.9183318008331344</v>
       </c>
       <c r="N16">
-        <v>0.9637855588946398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9890467006366938</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.9453275264899543</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>0.9875030107628368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9350777472601934</v>
+        <v>0.9286971951743217</v>
       </c>
       <c r="D17">
-        <v>0.9497290427896976</v>
+        <v>0.9557196194214431</v>
       </c>
       <c r="E17">
-        <v>0.9506224731985514</v>
+        <v>0.9462792835052959</v>
       </c>
       <c r="F17">
-        <v>0.9484083181936915</v>
+        <v>0.9119460779845664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.016977365236269</v>
       </c>
       <c r="J17">
-        <v>0.9652815804915622</v>
+        <v>0.9592008385714069</v>
       </c>
       <c r="K17">
-        <v>0.9646799148525699</v>
+        <v>0.9705512992333281</v>
       </c>
       <c r="L17">
-        <v>0.9655554436268663</v>
+        <v>0.9612996962088398</v>
       </c>
       <c r="M17">
-        <v>0.9633857348996606</v>
+        <v>0.9276968022827445</v>
       </c>
       <c r="N17">
-        <v>0.966652391055205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9905480091448421</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>0.9525904884401757</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>0.9903290448470404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9372646484036029</v>
+        <v>0.9330254170823402</v>
       </c>
       <c r="D18">
-        <v>0.9517827701048319</v>
+        <v>0.9591107462685488</v>
       </c>
       <c r="E18">
-        <v>0.9524310502747627</v>
+        <v>0.9498531908289718</v>
       </c>
       <c r="F18">
-        <v>0.950643367191092</v>
+        <v>0.9192015006485456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.018848885653634</v>
       </c>
       <c r="J18">
-        <v>0.9669267877276829</v>
+        <v>0.962881363056589</v>
       </c>
       <c r="K18">
-        <v>0.9664891521563905</v>
+        <v>0.973674692574</v>
       </c>
       <c r="L18">
-        <v>0.967124715560675</v>
+        <v>0.9645975587336569</v>
       </c>
       <c r="M18">
-        <v>0.9653721551390287</v>
+        <v>0.9345776628064574</v>
       </c>
       <c r="N18">
-        <v>0.968299934674309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9916831929388185</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>0.957772889634691</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>0.9925252551502171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9380049255850149</v>
+        <v>0.9358338114759505</v>
       </c>
       <c r="D19">
-        <v>0.9524781856020891</v>
+        <v>0.9613403083803919</v>
       </c>
       <c r="E19">
-        <v>0.9530435204455715</v>
+        <v>0.9521766137509351</v>
       </c>
       <c r="F19">
-        <v>0.9514001741066815</v>
+        <v>0.9236294452045082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.019741509592106</v>
       </c>
       <c r="J19">
-        <v>0.9674837120864428</v>
+        <v>0.9654107288217353</v>
       </c>
       <c r="K19">
-        <v>0.9671016562702252</v>
+        <v>0.9757931444199675</v>
       </c>
       <c r="L19">
-        <v>0.967655981683879</v>
+        <v>0.9668059642953438</v>
       </c>
       <c r="M19">
-        <v>0.9660446857334481</v>
+        <v>0.9388384126210736</v>
       </c>
       <c r="N19">
-        <v>0.9688576499295385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9924060509161936</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>0.9607876907790849</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>0.9940300215009759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9346728805069072</v>
+        <v>0.9345872320547691</v>
       </c>
       <c r="D20">
-        <v>0.9493489365828739</v>
+        <v>0.9604458176536428</v>
       </c>
       <c r="E20">
-        <v>0.9502877718028422</v>
+        <v>0.9511572171453309</v>
       </c>
       <c r="F20">
-        <v>0.9479946492370857</v>
+        <v>0.9208800720606186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.018071661581361</v>
       </c>
       <c r="J20">
-        <v>0.9649770065522509</v>
+        <v>0.9648953612642767</v>
       </c>
       <c r="K20">
-        <v>0.9643449997572355</v>
+        <v>0.9752217627049404</v>
       </c>
       <c r="L20">
-        <v>0.9652649502163151</v>
+        <v>0.9661169503261944</v>
       </c>
       <c r="M20">
-        <v>0.9630180408172602</v>
+        <v>0.9364730961094927</v>
       </c>
       <c r="N20">
-        <v>0.9663473845859649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9920241668129538</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.9583351935663362</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>0.9936301343971148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9234404797864934</v>
+        <v>0.9223584797971626</v>
       </c>
       <c r="D21">
-        <v>0.938816660366673</v>
+        <v>0.9510435423281556</v>
       </c>
       <c r="E21">
-        <v>0.941017854153519</v>
+        <v>0.9411399059627154</v>
       </c>
       <c r="F21">
-        <v>0.9365316819480981</v>
+        <v>0.8986419097493938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.010047597615365</v>
       </c>
       <c r="J21">
-        <v>0.9565285947267389</v>
+        <v>0.9555035776324692</v>
       </c>
       <c r="K21">
-        <v>0.9550579083536817</v>
+        <v>0.9670158126087107</v>
       </c>
       <c r="L21">
-        <v>0.9572099914479707</v>
+        <v>0.9573293291157079</v>
       </c>
       <c r="M21">
-        <v>0.9528242355451642</v>
+        <v>0.9158366225223705</v>
       </c>
       <c r="N21">
-        <v>0.9578869750466141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9888092765875648</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.941955066881302</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>0.9878310483736227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9160386506186644</v>
+        <v>0.9135579551447944</v>
       </c>
       <c r="D22">
-        <v>0.9318901427345487</v>
+        <v>0.9442596001564442</v>
       </c>
       <c r="E22">
-        <v>0.9349263545671557</v>
+        <v>0.9339247897614705</v>
       </c>
       <c r="F22">
-        <v>0.9289919734542859</v>
+        <v>0.8812270705858711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.003614632218761</v>
       </c>
       <c r="J22">
-        <v>0.9509637371650924</v>
+        <v>0.9486239135247119</v>
       </c>
       <c r="K22">
-        <v>0.9489434148633653</v>
+        <v>0.9610225143173055</v>
       </c>
       <c r="L22">
-        <v>0.9519074013061219</v>
+        <v>0.9509295921052444</v>
       </c>
       <c r="M22">
-        <v>0.946114778883863</v>
+        <v>0.8995859585804898</v>
       </c>
       <c r="N22">
-        <v>0.9523142147489322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9864583394283613</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9290914511060238</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9835785754451172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9199970304285674</v>
+        <v>0.9183113022804825</v>
       </c>
       <c r="D23">
-        <v>0.9355929506102927</v>
+        <v>0.9479144779508502</v>
       </c>
       <c r="E23">
-        <v>0.9381822705971153</v>
+        <v>0.937819447833198</v>
       </c>
       <c r="F23">
-        <v>0.9330227228765596</v>
+        <v>0.8908667498097251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.007198933720658</v>
       </c>
       <c r="J23">
-        <v>0.9539394373628654</v>
+        <v>0.952345685503861</v>
       </c>
       <c r="K23">
-        <v>0.9522127687149476</v>
+        <v>0.9642548340508657</v>
       </c>
       <c r="L23">
-        <v>0.9547425470436939</v>
+        <v>0.9543880409629453</v>
       </c>
       <c r="M23">
-        <v>0.9497020809486056</v>
+        <v>0.9085892811385643</v>
       </c>
       <c r="N23">
-        <v>0.9552941407823032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9877264964577473</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.936218296869221</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>0.985853951426879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9348559234035914</v>
+        <v>0.9348783799816416</v>
       </c>
       <c r="D24">
-        <v>0.9495207809838132</v>
+        <v>0.9606567219136543</v>
       </c>
       <c r="E24">
-        <v>0.9504390876246449</v>
+        <v>0.951389446675816</v>
       </c>
       <c r="F24">
-        <v>0.9481816673660383</v>
+        <v>0.921401721296314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.01821649512264</v>
       </c>
       <c r="J24">
-        <v>0.9651147060883786</v>
+        <v>0.9651361153240183</v>
       </c>
       <c r="K24">
-        <v>0.9644964157249367</v>
+        <v>0.9754118685829786</v>
       </c>
       <c r="L24">
-        <v>0.9653962829849452</v>
+        <v>0.9663276083525933</v>
       </c>
       <c r="M24">
-        <v>0.9631842754872396</v>
+        <v>0.9369656231323099</v>
       </c>
       <c r="N24">
-        <v>0.9664852796712282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9920841933658938</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9586797501548714</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>0.9937355123892404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9508245957417943</v>
+        <v>0.9513718086355895</v>
       </c>
       <c r="D25">
-        <v>0.964538507024151</v>
+        <v>0.9733533742709903</v>
       </c>
       <c r="E25">
-        <v>0.9636702052461866</v>
+        <v>0.9649109768531758</v>
       </c>
       <c r="F25">
-        <v>0.9645251231259158</v>
+        <v>0.9484972829224161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.027540777042041</v>
       </c>
       <c r="J25">
-        <v>0.9771283271288789</v>
+        <v>0.9776543429923726</v>
       </c>
       <c r="K25">
-        <v>0.9777134477629864</v>
+        <v>0.986379926630677</v>
       </c>
       <c r="L25">
-        <v>0.9768599525889295</v>
+        <v>0.9780795766448563</v>
       </c>
       <c r="M25">
-        <v>0.9777002918305931</v>
+        <v>0.9619514435745424</v>
       </c>
       <c r="N25">
-        <v>0.9785159614315876</v>
+        <v>0.9963399288546478</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>0.9784566201764815</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.001488287939662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9630621273292536</v>
+        <v>0.9693498809350491</v>
       </c>
       <c r="D2">
-        <v>0.9823436329420584</v>
+        <v>0.989232368550739</v>
       </c>
       <c r="E2">
-        <v>0.9745056993759165</v>
+        <v>0.9799765108131242</v>
       </c>
       <c r="F2">
-        <v>0.96630118261165</v>
+        <v>0.9687745594543098</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.033400655960771</v>
+        <v>1.033693918873757</v>
       </c>
       <c r="J2">
-        <v>0.9864067103895084</v>
+        <v>0.9924876422356963</v>
       </c>
       <c r="K2">
-        <v>0.9940545555864584</v>
+        <v>1.000843780222568</v>
       </c>
       <c r="L2">
-        <v>0.9863320196958899</v>
+        <v>0.9917220375560747</v>
       </c>
       <c r="M2">
-        <v>0.9782508534879939</v>
+        <v>0.9806867642443052</v>
       </c>
       <c r="N2">
-        <v>0.9993008936960396</v>
+        <v>1.005200162044259</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>0.9913576165634237</v>
+        <v>0.9932856177362329</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.006864679720478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.01167479273023</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.012339924444277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9710010997694829</v>
+        <v>0.9763244978444716</v>
       </c>
       <c r="D3">
-        <v>0.9884768922048266</v>
+        <v>0.994292357797082</v>
       </c>
       <c r="E3">
-        <v>0.9810374749998111</v>
+        <v>0.9856741571064017</v>
       </c>
       <c r="F3">
-        <v>0.9777385268437374</v>
+        <v>0.9797937883254947</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.037022520135223</v>
+        <v>1.037258318322998</v>
       </c>
       <c r="J3">
-        <v>0.992314782101245</v>
+        <v>0.9974820701546042</v>
       </c>
       <c r="K3">
-        <v>0.9992593679511949</v>
+        <v>1.004998793683564</v>
       </c>
       <c r="L3">
-        <v>0.9919188756760776</v>
+        <v>0.9964936819408193</v>
       </c>
       <c r="M3">
-        <v>0.9886644008822326</v>
+        <v>0.9906919110222359</v>
       </c>
       <c r="N3">
-        <v>1.001302250543978</v>
+        <v>1.006538269057216</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>0.9995998016007054</v>
+        <v>1.001204536179656</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.010542497733708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.014609909014588</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.013354723285382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.97590739659299</v>
+        <v>0.9806498477035848</v>
       </c>
       <c r="D4">
-        <v>0.9922735069834505</v>
+        <v>0.9974366521151656</v>
       </c>
       <c r="E4">
-        <v>0.9850795235731432</v>
+        <v>0.9892126521640793</v>
       </c>
       <c r="F4">
-        <v>0.9845781263179406</v>
+        <v>0.9863903512741516</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.039127242217387</v>
+        <v>1.039331409580301</v>
       </c>
       <c r="J4">
-        <v>0.9959481382933412</v>
+        <v>1.000561827167476</v>
       </c>
       <c r="K4">
-        <v>1.002466087237596</v>
+        <v>1.007566113259637</v>
       </c>
       <c r="L4">
-        <v>0.9953614249316597</v>
+        <v>0.999443038508947</v>
       </c>
       <c r="M4">
-        <v>0.9948663137340888</v>
+        <v>0.996655856311608</v>
       </c>
       <c r="N4">
-        <v>1.002532072208928</v>
+        <v>1.007362990685339</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.004508481194636</v>
+        <v>1.005924858217615</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.012811050016363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.01642635296079</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.013977459240484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9779284015350729</v>
+        <v>0.9824341570900711</v>
       </c>
       <c r="D5">
-        <v>0.9938421459698328</v>
+        <v>0.998738434024225</v>
       </c>
       <c r="E5">
-        <v>0.9867465731810037</v>
+        <v>0.9906742325589015</v>
       </c>
       <c r="F5">
-        <v>0.9873376310826806</v>
+        <v>0.9890525895352735</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.039961333386887</v>
+        <v>1.040153191642635</v>
       </c>
       <c r="J5">
-        <v>0.9974427748759045</v>
+        <v>1.001830183163904</v>
       </c>
       <c r="K5">
-        <v>1.003788981479985</v>
+        <v>1.008627125806478</v>
       </c>
       <c r="L5">
-        <v>0.996778941155518</v>
+        <v>1.000659067266229</v>
       </c>
       <c r="M5">
-        <v>0.9973628159332345</v>
+        <v>0.9990569928487496</v>
       </c>
       <c r="N5">
-        <v>1.003038686413645</v>
+        <v>1.007703164286995</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.006484397741343</v>
+        <v>1.007825291193329</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.013753958023059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.017184747966743</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.014234566690303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9782752598011087</v>
+        <v>0.9827398514646386</v>
       </c>
       <c r="D6">
-        <v>0.9941153888092696</v>
+        <v>0.9989654036237302</v>
       </c>
       <c r="E6">
-        <v>0.9870336927622816</v>
+        <v>0.990925501079335</v>
       </c>
       <c r="F6">
-        <v>0.9877982869338167</v>
+        <v>0.9894964782515155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.040098974237928</v>
+        <v>1.04028873935803</v>
       </c>
       <c r="J6">
-        <v>0.9977014886982698</v>
+        <v>1.002049473469955</v>
       </c>
       <c r="K6">
-        <v>1.004020953703032</v>
+        <v>1.00881365857731</v>
       </c>
       <c r="L6">
-        <v>0.9970241940521167</v>
+        <v>1.000869138427515</v>
       </c>
       <c r="M6">
-        <v>0.9977795450302113</v>
+        <v>0.9994572702950972</v>
       </c>
       <c r="N6">
-        <v>1.003127497010615</v>
+        <v>1.007762717175338</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.006814227380821</v>
+        <v>1.008142099139434</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.013927056520783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.017326554994535</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.014280626099147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9759626769492794</v>
+        <v>0.9807094928449448</v>
       </c>
       <c r="D7">
-        <v>0.9923269787745116</v>
+        <v>0.9974915202530747</v>
       </c>
       <c r="E7">
-        <v>0.9851276723156293</v>
+        <v>0.9892649260254677</v>
       </c>
       <c r="F7">
-        <v>0.984626181823606</v>
+        <v>0.9864399740027266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.039139790449203</v>
+        <v>1.039344114173435</v>
       </c>
       <c r="J7">
-        <v>0.9959955836608354</v>
+        <v>1.000613586909153</v>
       </c>
       <c r="K7">
-        <v>1.002515868219944</v>
+        <v>1.007617303319028</v>
       </c>
       <c r="L7">
-        <v>0.9954059073742403</v>
+        <v>0.9994916185873101</v>
       </c>
       <c r="M7">
-        <v>0.9949107012205219</v>
+        <v>0.9967018018724658</v>
       </c>
       <c r="N7">
-        <v>1.002551258496396</v>
+        <v>1.0074058013927</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.004543612789402</v>
+        <v>1.005961222908125</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.012867119186099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.016485353425797</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.013993412617668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9658329243860856</v>
+        <v>0.9718176951561754</v>
       </c>
       <c r="D8">
-        <v>0.9844962149048132</v>
+        <v>0.9910377875133347</v>
       </c>
       <c r="E8">
-        <v>0.9767876568448706</v>
+        <v>0.9819984402130201</v>
       </c>
       <c r="F8">
-        <v>0.9703073453813245</v>
+        <v>0.972645714164817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.034679979518087</v>
+        <v>1.034953968069499</v>
       </c>
       <c r="J8">
-        <v>0.9884808986597244</v>
+        <v>0.9942762345598892</v>
       </c>
       <c r="K8">
-        <v>0.9958903725350376</v>
+        <v>1.002340541983336</v>
       </c>
       <c r="L8">
-        <v>0.9882915132021572</v>
+        <v>0.9934279045937726</v>
       </c>
       <c r="M8">
-        <v>0.9819051324688914</v>
+        <v>0.9842094240770508</v>
       </c>
       <c r="N8">
-        <v>1.000007921118186</v>
+        <v>1.005764298108414</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>0.9942499427740412</v>
+        <v>0.9960737600249178</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.008186773235877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.012759271276478</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.012713035067036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9458610522952946</v>
+        <v>0.9543982187889054</v>
       </c>
       <c r="D9">
-        <v>0.9690916287940193</v>
+        <v>0.9784260264995315</v>
       </c>
       <c r="E9">
-        <v>0.960385584845141</v>
+        <v>0.9677962213390586</v>
       </c>
       <c r="F9">
-        <v>0.9398011991416421</v>
+        <v>0.9433369989753444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.024603100227408</v>
+        <v>1.025061332354373</v>
       </c>
       <c r="J9">
-        <v>0.9734819341957046</v>
+        <v>0.9816708466414026</v>
       </c>
       <c r="K9">
-        <v>0.9827069020377931</v>
+        <v>0.9918791009402984</v>
       </c>
       <c r="L9">
-        <v>0.9741558317375344</v>
+        <v>0.981434324775143</v>
       </c>
       <c r="M9">
-        <v>0.9539528028357629</v>
+        <v>0.9574215496715653</v>
       </c>
       <c r="N9">
-        <v>0.9949166524586671</v>
+        <v>1.002392436372385</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>0.9721255834887588</v>
+        <v>0.9748711541677816</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>0.9988608853464472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.005358190258529</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.010128388485324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9303266558054826</v>
+        <v>0.9410708969830949</v>
       </c>
       <c r="D10">
-        <v>0.957142029438228</v>
+        <v>0.9688166325144805</v>
       </c>
       <c r="E10">
-        <v>0.9476599019571696</v>
+        <v>0.9569616447968676</v>
       </c>
       <c r="F10">
-        <v>0.9135077648117793</v>
+        <v>0.9182641031389144</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.015479418599872</v>
+        <v>1.016165803165807</v>
       </c>
       <c r="J10">
-        <v>0.9616059246980444</v>
+        <v>0.9718346939475968</v>
       </c>
       <c r="K10">
-        <v>0.9723307537213091</v>
+        <v>0.9837727010074611</v>
       </c>
       <c r="L10">
-        <v>0.96304316421819</v>
+        <v>0.9721540225182059</v>
       </c>
       <c r="M10">
-        <v>0.9296364455526024</v>
+        <v>0.9342845365473375</v>
       </c>
       <c r="N10">
-        <v>0.990899522728535</v>
+        <v>0.9998870176051745</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.9529357904818727</v>
+        <v>0.9566146755291941</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>0.9915411720519848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0.9996453046186854</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.008107463993643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9207981497168836</v>
+        <v>0.9330107071808006</v>
       </c>
       <c r="D11">
-        <v>0.9497790754895215</v>
+        <v>0.9629933070634141</v>
       </c>
       <c r="E11">
-        <v>0.939865740883447</v>
+        <v>0.9504028660806858</v>
       </c>
       <c r="F11">
-        <v>0.8965182677186407</v>
+        <v>0.90224538049071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.010049464027892</v>
+        <v>1.010936295547622</v>
       </c>
       <c r="J11">
-        <v>0.9538820186678467</v>
+        <v>0.9654626239047475</v>
       </c>
       <c r="K11">
-        <v>0.965714579892383</v>
+        <v>0.9786485692542245</v>
       </c>
       <c r="L11">
-        <v>0.9560183719341302</v>
+        <v>0.9663249088556894</v>
       </c>
       <c r="M11">
-        <v>0.9136965796066516</v>
+        <v>0.9192805606154718</v>
       </c>
       <c r="N11">
-        <v>0.9884661786028046</v>
+        <v>0.9985304681011472</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.9408111853862123</v>
+        <v>0.945228090307435</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>0.986897626009725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>0.9960599475062882</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.006879203852414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9155462177448851</v>
+        <v>0.9285845195229255</v>
       </c>
       <c r="D12">
-        <v>0.9456738314419506</v>
+        <v>0.9597554051043558</v>
       </c>
       <c r="E12">
-        <v>0.9355492489825818</v>
+        <v>0.9467719403924617</v>
       </c>
       <c r="F12">
-        <v>0.886996181652459</v>
+        <v>0.8933455674185355</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.007358535929998</v>
+        <v>1.008377822321626</v>
       </c>
       <c r="J12">
-        <v>0.9494109590604479</v>
+        <v>0.9617521131543345</v>
       </c>
       <c r="K12">
-        <v>0.9619214880443522</v>
+        <v>0.9756964937723761</v>
       </c>
       <c r="L12">
-        <v>0.9520249450937076</v>
+        <v>0.9629952539460351</v>
       </c>
       <c r="M12">
-        <v>0.9046638034882006</v>
+        <v>0.9108473422743524</v>
       </c>
       <c r="N12">
-        <v>0.9871012633440504</v>
+        <v>0.9977303155289003</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9340325453773146</v>
+        <v>0.9389216229801766</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>0.9842154173206989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0.9939725553946965</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.00617416859495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9137405676001268</v>
+        <v>0.9270210341573616</v>
       </c>
       <c r="D13">
-        <v>0.944207174490946</v>
+        <v>0.9585649500792115</v>
       </c>
       <c r="E13">
-        <v>0.9340392132218831</v>
+        <v>0.9454493663722249</v>
       </c>
       <c r="F13">
-        <v>0.8841057043320465</v>
+        <v>0.8906633356660592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.007154159378261</v>
+        <v>1.008206676549046</v>
       </c>
       <c r="J13">
-        <v>0.9475961228349186</v>
+        <v>0.9601653687554037</v>
       </c>
       <c r="K13">
-        <v>0.9604395180865761</v>
+        <v>0.9744846207110812</v>
       </c>
       <c r="L13">
-        <v>0.9505007550721866</v>
+        <v>0.9616541590345309</v>
       </c>
       <c r="M13">
-        <v>0.901796897837249</v>
+        <v>0.9081823817302314</v>
       </c>
       <c r="N13">
-        <v>0.9866218012475337</v>
+        <v>0.9973575465118893</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.9320723075952563</v>
+        <v>0.9371195011688429</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.9831647867157101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0.993112747405737</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.005897058465669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9140802692631387</v>
+        <v>0.9272537502069542</v>
       </c>
       <c r="D14">
-        <v>0.9444094258500607</v>
+        <v>0.9586823747528052</v>
       </c>
       <c r="E14">
-        <v>0.9342865445454529</v>
+        <v>0.9455934371145112</v>
       </c>
       <c r="F14">
-        <v>0.8852175618668364</v>
+        <v>0.8917084025642911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.008178819813223</v>
+        <v>1.00920261199592</v>
       </c>
       <c r="J14">
-        <v>0.9475638073217458</v>
+        <v>0.9600410843700175</v>
       </c>
       <c r="K14">
-        <v>0.9604802527366431</v>
+        <v>0.9744459951563524</v>
       </c>
       <c r="L14">
-        <v>0.9505828436661847</v>
+        <v>0.961638310894222</v>
       </c>
       <c r="M14">
-        <v>0.9027060425747336</v>
+        <v>0.9090289911979086</v>
       </c>
       <c r="N14">
-        <v>0.986697390493647</v>
+        <v>0.9972976848149382</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9329797944366244</v>
+        <v>0.9379767841456615</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>0.9831951228371643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>0.993087091131166</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.005902747622101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9150053399718084</v>
+        <v>0.9280073774464842</v>
       </c>
       <c r="D15">
-        <v>0.9451108506572279</v>
+        <v>0.9592162719266824</v>
       </c>
       <c r="E15">
-        <v>0.9350365838863322</v>
+        <v>0.9461948563836274</v>
       </c>
       <c r="F15">
-        <v>0.8870930499056762</v>
+        <v>0.8934583215683118</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.008983118175024</v>
+        <v>1.009975041968884</v>
       </c>
       <c r="J15">
-        <v>0.948221851085953</v>
+        <v>0.9605437963659953</v>
       </c>
       <c r="K15">
-        <v>0.961069664316397</v>
+        <v>0.9748741191835595</v>
       </c>
       <c r="L15">
-        <v>0.9512177598934882</v>
+        <v>0.9621301180720069</v>
       </c>
       <c r="M15">
-        <v>0.9044262915113526</v>
+        <v>0.9106289889417192</v>
       </c>
       <c r="N15">
-        <v>0.986938223522855</v>
+        <v>0.9973984938433289</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.9343797839442041</v>
+        <v>0.9392816068030999</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>0.9836182260480815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0.9933966406798942</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.006013600684415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9230049658422258</v>
+        <v>0.9346754677073545</v>
       </c>
       <c r="D16">
-        <v>0.9512899129040482</v>
+        <v>0.9640362898014816</v>
       </c>
       <c r="E16">
-        <v>0.9415944275231459</v>
+        <v>0.9516210776026706</v>
       </c>
       <c r="F16">
-        <v>0.9019770792240422</v>
+        <v>0.9074055345972923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I16">
-        <v>1.013983787610425</v>
+        <v>1.014774807724737</v>
       </c>
       <c r="J16">
-        <v>0.9545575858153732</v>
+        <v>0.9656580239915349</v>
       </c>
       <c r="K16">
-        <v>0.9665586366483933</v>
+        <v>0.979048035435342</v>
       </c>
       <c r="L16">
-        <v>0.9570647869855031</v>
+        <v>0.9668830098711788</v>
       </c>
       <c r="M16">
-        <v>0.9183318008331344</v>
+        <v>0.9236329678246115</v>
       </c>
       <c r="N16">
-        <v>0.9890467006366938</v>
+        <v>0.9985299179778265</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.9453275264899543</v>
+        <v>0.9495170944673713</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>0.9875030107628368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>0.9963516448364286</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.007052966259852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9286971951743217</v>
+        <v>0.9394907151658168</v>
       </c>
       <c r="D17">
-        <v>0.9557196194214431</v>
+        <v>0.9675460464253889</v>
       </c>
       <c r="E17">
-        <v>0.9462792835052959</v>
+        <v>0.9555650037577561</v>
       </c>
       <c r="F17">
-        <v>0.9119460779845664</v>
+        <v>0.9168080238510312</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.016977365236269</v>
+        <v>1.017660724894837</v>
       </c>
       <c r="J17">
-        <v>0.9592008385714069</v>
+        <v>0.9694906081461584</v>
       </c>
       <c r="K17">
-        <v>0.9705512992333281</v>
+        <v>0.982148089555608</v>
       </c>
       <c r="L17">
-        <v>0.9612996962088398</v>
+        <v>0.9703997352232722</v>
       </c>
       <c r="M17">
-        <v>0.9276968022827445</v>
+        <v>0.932450906240658</v>
       </c>
       <c r="N17">
-        <v>0.9905480091448421</v>
+        <v>0.9994167961244885</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0.9525904884401757</v>
+        <v>0.9563481665574662</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>0.9903290448470404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>0.99854662654907</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.007815560449278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9330254170823402</v>
+        <v>0.9431983388605124</v>
       </c>
       <c r="D18">
-        <v>0.9591107462685488</v>
+        <v>0.9702662464337128</v>
       </c>
       <c r="E18">
-        <v>0.9498531908289718</v>
+        <v>0.9586208346915449</v>
       </c>
       <c r="F18">
-        <v>0.9192015006485456</v>
+        <v>0.9236758254250358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.018848885653634</v>
+        <v>1.019465106354591</v>
       </c>
       <c r="J18">
-        <v>0.962881363056589</v>
+        <v>0.9725933905391138</v>
       </c>
       <c r="K18">
-        <v>0.973674692574</v>
+        <v>0.984618750739261</v>
       </c>
       <c r="L18">
-        <v>0.9645975587336569</v>
+        <v>0.9731942145662527</v>
       </c>
       <c r="M18">
-        <v>0.9345776628064574</v>
+        <v>0.938956300267315</v>
       </c>
       <c r="N18">
-        <v>0.9916831929388185</v>
+        <v>1.000139916299544</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0.957772889634691</v>
+        <v>0.9612346535181481</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>0.9925252551502171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.000280154016624</v>
+      </c>
+      <c r="S18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.008409252263552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9358338114759505</v>
+        <v>0.9456368206947542</v>
       </c>
       <c r="D19">
-        <v>0.9613403083803919</v>
+        <v>0.972079392447226</v>
       </c>
       <c r="E19">
-        <v>0.9521766137509351</v>
+        <v>0.9606430078133268</v>
       </c>
       <c r="F19">
-        <v>0.9236294452045082</v>
+        <v>0.927873027796754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.019741509592106</v>
+        <v>1.020321155394839</v>
       </c>
       <c r="J19">
-        <v>0.9654107288217353</v>
+        <v>0.9747757664423298</v>
       </c>
       <c r="K19">
-        <v>0.9757931444199675</v>
+        <v>0.9863308887410506</v>
       </c>
       <c r="L19">
-        <v>0.9668059642953438</v>
+        <v>0.9751091206661292</v>
       </c>
       <c r="M19">
-        <v>0.9388384126210736</v>
+        <v>0.9429928507269885</v>
       </c>
       <c r="N19">
-        <v>0.9924060509161936</v>
+        <v>1.000633680457462</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>0.9607876907790849</v>
+        <v>0.9640734791558984</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>0.9940300215009759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.001498133693802</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.008806281789892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9345872320547691</v>
+        <v>0.944664073927644</v>
       </c>
       <c r="D20">
-        <v>0.9604458176536428</v>
+        <v>0.9714290961771125</v>
       </c>
       <c r="E20">
-        <v>0.9511572171453309</v>
+        <v>0.9598841542482857</v>
       </c>
       <c r="F20">
-        <v>0.9208800720606186</v>
+        <v>0.9252506977242259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.018071661581361</v>
+        <v>1.018682328670108</v>
       </c>
       <c r="J20">
-        <v>0.9648953612642767</v>
+        <v>0.9745083511783159</v>
       </c>
       <c r="K20">
-        <v>0.9752217627049404</v>
+        <v>0.9859936499150216</v>
       </c>
       <c r="L20">
-        <v>0.9661169503261944</v>
+        <v>0.9746710800409</v>
       </c>
       <c r="M20">
-        <v>0.9364730961094927</v>
+        <v>0.9407489074232824</v>
       </c>
       <c r="N20">
-        <v>0.9920241668129538</v>
+        <v>1.000504746478896</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.9583351935663362</v>
+        <v>0.9617194479335478</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>0.9936301343971148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.001264173308059</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.008667788179618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9223584797971626</v>
+        <v>0.9344607942726322</v>
       </c>
       <c r="D21">
-        <v>0.9510435423281556</v>
+        <v>0.9640944808492438</v>
       </c>
       <c r="E21">
-        <v>0.9411399059627154</v>
+        <v>0.95161502839137</v>
       </c>
       <c r="F21">
-        <v>0.8986419097493938</v>
+        <v>0.9042552832298262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.010047597615365</v>
+        <v>1.010919326932044</v>
       </c>
       <c r="J21">
-        <v>0.9555035776324692</v>
+        <v>0.9669794026613334</v>
       </c>
       <c r="K21">
-        <v>0.9670158126087107</v>
+        <v>0.9797895909330188</v>
       </c>
       <c r="L21">
-        <v>0.9573293291157079</v>
+        <v>0.9675749509354682</v>
       </c>
       <c r="M21">
-        <v>0.9158366225223705</v>
+        <v>0.9213099107636498</v>
       </c>
       <c r="N21">
-        <v>0.9888092765875648</v>
+        <v>0.9989150973304489</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.941955066881302</v>
+        <v>0.9462875071550914</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>0.9878310483736227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>0.9968811386259308</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.007116004815156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9135579551447944</v>
+        <v>0.9271971702197925</v>
       </c>
       <c r="D22">
-        <v>0.9442596001564442</v>
+        <v>0.9588589620924788</v>
       </c>
       <c r="E22">
-        <v>0.9339247897614705</v>
+        <v>0.9457207165048674</v>
       </c>
       <c r="F22">
-        <v>0.8812270705858711</v>
+        <v>0.887998236351441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.003614632218761</v>
+        <v>1.004773393933643</v>
       </c>
       <c r="J22">
-        <v>0.9486239135247119</v>
+        <v>0.9615021574470228</v>
       </c>
       <c r="K22">
-        <v>0.9610225143173055</v>
+        <v>0.9752919931913541</v>
       </c>
       <c r="L22">
-        <v>0.9509295921052444</v>
+        <v>0.962450002784055</v>
       </c>
       <c r="M22">
-        <v>0.8995859585804898</v>
+        <v>0.9061708753271953</v>
       </c>
       <c r="N22">
-        <v>0.9864583394283613</v>
+        <v>0.9977158537001596</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9290914511060238</v>
+        <v>0.9343039468787663</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9835785754451172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>0.9936852943764928</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.005981892881159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9183113022804825</v>
+        <v>0.9310901264840832</v>
       </c>
       <c r="D23">
-        <v>0.9479144779508502</v>
+        <v>0.9616534382710393</v>
       </c>
       <c r="E23">
-        <v>0.937819447833198</v>
+        <v>0.9488751889106326</v>
       </c>
       <c r="F23">
-        <v>0.8908667498097251</v>
+        <v>0.8969638939252463</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I23">
-        <v>1.007198933720658</v>
+        <v>1.008185886564615</v>
       </c>
       <c r="J23">
-        <v>0.952345685503861</v>
+        <v>0.9644393235833625</v>
       </c>
       <c r="K23">
-        <v>0.9642548340508657</v>
+        <v>0.9776933758696833</v>
       </c>
       <c r="L23">
-        <v>0.9543880409629453</v>
+        <v>0.9651941612931988</v>
       </c>
       <c r="M23">
-        <v>0.9085892811385643</v>
+        <v>0.9145273319006232</v>
       </c>
       <c r="N23">
-        <v>0.9877264964577473</v>
+        <v>0.9983157471861861</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.936218296869221</v>
+        <v>0.9409186781510946</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.985853951426879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>0.9953721501991092</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.006583330921326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9348783799816416</v>
+        <v>0.9449226740219565</v>
       </c>
       <c r="D24">
-        <v>0.9606567219136543</v>
+        <v>0.9716021393861651</v>
       </c>
       <c r="E24">
-        <v>0.951389446675816</v>
+        <v>0.9600911364548796</v>
       </c>
       <c r="F24">
-        <v>0.921401721296314</v>
+        <v>0.9257505439609559</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.01821649512264</v>
+        <v>1.018823128542661</v>
       </c>
       <c r="J24">
-        <v>0.9651361153240183</v>
+        <v>0.9747191039119982</v>
       </c>
       <c r="K24">
-        <v>0.9754118685829786</v>
+        <v>0.9861470074546478</v>
       </c>
       <c r="L24">
-        <v>0.9663276083525933</v>
+        <v>0.9748573198090945</v>
       </c>
       <c r="M24">
-        <v>0.9369656231323099</v>
+        <v>0.9412203672850534</v>
       </c>
       <c r="N24">
-        <v>0.9920841933658938</v>
+        <v>1.000544069274628</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9586797501548714</v>
+        <v>0.9620475320410729</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>0.9937355123892404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.001341084784185</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.008697327100489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9513718086355895</v>
+        <v>0.9591622060671051</v>
       </c>
       <c r="D25">
-        <v>0.9733533742709903</v>
+        <v>0.981884372946947</v>
       </c>
       <c r="E25">
-        <v>0.9649109768531758</v>
+        <v>0.9716779538843758</v>
       </c>
       <c r="F25">
-        <v>0.9484972829224161</v>
+        <v>0.9516653541239629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.027540777042041</v>
+        <v>1.027938749386428</v>
       </c>
       <c r="J25">
-        <v>0.9776543429923726</v>
+        <v>0.9851466627474267</v>
       </c>
       <c r="K25">
-        <v>0.986379926630677</v>
+        <v>0.994770574837851</v>
       </c>
       <c r="L25">
-        <v>0.9780795766448563</v>
+        <v>0.9847324430277973</v>
       </c>
       <c r="M25">
-        <v>0.9619514435745424</v>
+        <v>0.9650634029148193</v>
       </c>
       <c r="N25">
-        <v>0.9963399288546478</v>
+        <v>1.003294559994211</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>0.9784566201764815</v>
+        <v>0.9809197606741249</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.001488287939662</v>
+        <v>1.007435505856132</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.010850324535279</v>
       </c>
     </row>
   </sheetData>
